--- a/Code/Results/Cases/Case_5_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,845 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.47508563521657</v>
+        <v>22.6383397504628</v>
       </c>
       <c r="C2">
-        <v>18.06869579018077</v>
+        <v>11.38213826061168</v>
       </c>
       <c r="D2">
-        <v>3.516188248247412</v>
+        <v>4.193024828421342</v>
       </c>
       <c r="E2">
-        <v>5.659451558997663</v>
+        <v>6.50428421796418</v>
       </c>
       <c r="F2">
-        <v>40.35620353778903</v>
+        <v>30.97165284017035</v>
       </c>
       <c r="I2">
-        <v>25.84832806287309</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.414621922061952</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.07552734129666</v>
       </c>
       <c r="L2">
-        <v>8.925407466572175</v>
+        <v>7.310180883983189</v>
       </c>
       <c r="M2">
-        <v>14.98099810269163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.86984338107947</v>
+      </c>
+      <c r="O2">
+        <v>24.2700142464687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.93840566478157</v>
+        <v>21.18018711515727</v>
       </c>
       <c r="C3">
-        <v>16.75877289839046</v>
+        <v>10.71650378130344</v>
       </c>
       <c r="D3">
-        <v>3.540639856985099</v>
+        <v>4.282590517015842</v>
       </c>
       <c r="E3">
-        <v>5.638360328923043</v>
+        <v>6.495924013395385</v>
       </c>
       <c r="F3">
-        <v>38.36244670514183</v>
+        <v>29.75153710646882</v>
       </c>
       <c r="I3">
-        <v>24.95874349392257</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.425236149290102</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.807077757042</v>
       </c>
       <c r="L3">
-        <v>8.526543925462306</v>
+        <v>7.065156893064346</v>
       </c>
       <c r="M3">
-        <v>13.94225320364944</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.12083850535527</v>
+      </c>
+      <c r="O3">
+        <v>23.51968487713291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.9473338993736</v>
+        <v>20.24785959929309</v>
       </c>
       <c r="C4">
-        <v>15.91569537530591</v>
+        <v>10.28903708579841</v>
       </c>
       <c r="D4">
-        <v>3.55798076947761</v>
+        <v>4.3379253617806</v>
       </c>
       <c r="E4">
-        <v>5.62813384025524</v>
+        <v>6.494332988165116</v>
       </c>
       <c r="F4">
-        <v>37.13224374707648</v>
+        <v>29.01109209601895</v>
       </c>
       <c r="I4">
-        <v>24.42424411602314</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.434701794680395</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.98670598154342</v>
       </c>
       <c r="L4">
-        <v>8.280783998176036</v>
+        <v>6.915709562390824</v>
       </c>
       <c r="M4">
-        <v>13.27313267297381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.27825549366611</v>
+      </c>
+      <c r="O4">
+        <v>23.0733177816544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.53129463937274</v>
+        <v>19.85877774365517</v>
       </c>
       <c r="C5">
-        <v>15.56217625818917</v>
+        <v>10.11013360532318</v>
       </c>
       <c r="D5">
-        <v>3.5655821528082</v>
+        <v>4.360586579690009</v>
       </c>
       <c r="E5">
-        <v>5.624623607703583</v>
+        <v>6.494546190050575</v>
       </c>
       <c r="F5">
-        <v>36.62978005003961</v>
+        <v>28.71183731252008</v>
       </c>
       <c r="I5">
-        <v>24.209414536376</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.439265595013421</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.64182276156734</v>
       </c>
       <c r="L5">
-        <v>8.180513286615936</v>
+        <v>6.85512472278441</v>
       </c>
       <c r="M5">
-        <v>12.99244398216305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.34325757488054</v>
+      </c>
+      <c r="O5">
+        <v>22.89510932139441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.46147066152444</v>
+        <v>19.79362428217258</v>
       </c>
       <c r="C6">
-        <v>15.50286747772579</v>
+        <v>10.08014320480258</v>
       </c>
       <c r="D6">
-        <v>3.566875287167482</v>
+        <v>4.364356935303243</v>
       </c>
       <c r="E6">
-        <v>5.624079640524416</v>
+        <v>6.494632789207253</v>
       </c>
       <c r="F6">
-        <v>36.54629005775483</v>
+        <v>28.66230538979256</v>
       </c>
       <c r="I6">
-        <v>24.17392392176086</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.440065104563322</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.5839127723978</v>
       </c>
       <c r="L6">
-        <v>8.16385920077377</v>
+        <v>6.845085764734804</v>
       </c>
       <c r="M6">
-        <v>12.94534783201561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.3541033199316</v>
+      </c>
+      <c r="O6">
+        <v>22.86574328911933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94177259446093</v>
+        <v>20.24264909794211</v>
       </c>
       <c r="C7">
-        <v>15.91096827551754</v>
+        <v>10.28664336224512</v>
       </c>
       <c r="D7">
-        <v>3.558081181611213</v>
+        <v>4.338230493142565</v>
       </c>
       <c r="E7">
-        <v>5.628083874943628</v>
+        <v>6.494332413052787</v>
       </c>
       <c r="F7">
-        <v>37.12547141656854</v>
+        <v>29.00704577924328</v>
       </c>
       <c r="I7">
-        <v>24.4213347047045</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.434760527588868</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.9820977516103</v>
       </c>
       <c r="L7">
-        <v>8.279432065705945</v>
+        <v>6.914891123654905</v>
       </c>
       <c r="M7">
-        <v>13.26937984103154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.27912864944124</v>
+      </c>
+      <c r="O7">
+        <v>23.07089934732973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.95497214437921</v>
+        <v>22.14332463758561</v>
       </c>
       <c r="C8">
-        <v>17.62495346773624</v>
+        <v>11.15652289204548</v>
       </c>
       <c r="D8">
-        <v>3.524103941820295</v>
+        <v>4.223852590235961</v>
       </c>
       <c r="E8">
-        <v>5.651596883135798</v>
+        <v>6.50064866515268</v>
       </c>
       <c r="F8">
-        <v>39.67019360802048</v>
+        <v>30.54931282499614</v>
       </c>
       <c r="I8">
-        <v>25.53918523068458</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>6.417647930372</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.64670710965772</v>
       </c>
       <c r="L8">
-        <v>8.788106659265994</v>
+        <v>7.225526490726223</v>
       </c>
       <c r="M8">
-        <v>14.62925271518471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.95571392103358</v>
+      </c>
+      <c r="O8">
+        <v>24.00837379858961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.53619321348889</v>
+        <v>25.7842720064996</v>
       </c>
       <c r="C9">
-        <v>20.6886398694539</v>
+        <v>12.71395532439347</v>
       </c>
       <c r="D9">
-        <v>3.478537802186167</v>
+        <v>4.000973179930576</v>
       </c>
       <c r="E9">
-        <v>5.720648209763582</v>
+        <v>6.542492033038891</v>
       </c>
       <c r="F9">
-        <v>44.60270401737756</v>
+        <v>33.63220922902162</v>
       </c>
       <c r="I9">
-        <v>27.8240792442288</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6.409200484402398</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.58761814361951</v>
       </c>
       <c r="L9">
-        <v>9.775889794290023</v>
+        <v>7.840120316640176</v>
       </c>
       <c r="M9">
-        <v>17.05443096529293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12.34673482914944</v>
+      </c>
+      <c r="O9">
+        <v>25.95735553372729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.96017229777812</v>
+        <v>28.27045463253165</v>
       </c>
       <c r="C10">
-        <v>22.77418733668971</v>
+        <v>13.76969752862075</v>
       </c>
       <c r="D10">
-        <v>3.462078555065668</v>
+        <v>3.836088874271239</v>
       </c>
       <c r="E10">
-        <v>5.787371342720222</v>
+        <v>6.593132730793366</v>
       </c>
       <c r="F10">
-        <v>48.18835649513268</v>
+        <v>35.92269222977774</v>
       </c>
       <c r="I10">
-        <v>29.56255358360565</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6.420933975600088</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.56039755003421</v>
       </c>
       <c r="L10">
-        <v>10.49364387513793</v>
+        <v>8.292318415835934</v>
       </c>
       <c r="M10">
-        <v>18.70003957653977</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.91341214160942</v>
+      </c>
+      <c r="O10">
+        <v>27.45394772420441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.02211233328178</v>
+        <v>29.35467521095039</v>
       </c>
       <c r="C11">
-        <v>23.69117568908656</v>
+        <v>14.2315238020994</v>
       </c>
       <c r="D11">
-        <v>3.459405243260999</v>
+        <v>3.760326030522584</v>
       </c>
       <c r="E11">
-        <v>5.821695177048298</v>
+        <v>6.620938709459852</v>
       </c>
       <c r="F11">
-        <v>49.81366128755703</v>
+        <v>36.96935556665115</v>
       </c>
       <c r="I11">
-        <v>30.36828094460973</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.430833486450344</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.41929235541256</v>
       </c>
       <c r="L11">
-        <v>10.86610715925581</v>
+        <v>8.497828233623112</v>
       </c>
       <c r="M11">
-        <v>19.42197357015301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.71910759833496</v>
+      </c>
+      <c r="O11">
+        <v>28.14882842288091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.41878517075797</v>
+        <v>29.75874395222849</v>
       </c>
       <c r="C12">
-        <v>24.03425038126393</v>
+        <v>14.40383731869859</v>
       </c>
       <c r="D12">
-        <v>3.459196404440395</v>
+        <v>3.731479988490567</v>
       </c>
       <c r="E12">
-        <v>5.835310716529072</v>
+        <v>6.632193301156748</v>
       </c>
       <c r="F12">
-        <v>50.42869856243431</v>
+        <v>37.36639689135956</v>
       </c>
       <c r="I12">
-        <v>30.67578272992972</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6.435301782151273</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.73919489755913</v>
       </c>
       <c r="L12">
-        <v>11.02305723212618</v>
+        <v>8.57560729976751</v>
       </c>
       <c r="M12">
-        <v>19.69179498888242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.64592075189009</v>
+      </c>
+      <c r="O12">
+        <v>28.41403336705229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.33359052076898</v>
+        <v>29.67200586248346</v>
       </c>
       <c r="C13">
-        <v>23.96054161470605</v>
+        <v>14.36683935380035</v>
       </c>
       <c r="D13">
-        <v>3.459203694377026</v>
+        <v>3.737700269700439</v>
       </c>
       <c r="E13">
-        <v>5.832350079408147</v>
+        <v>6.629736523821533</v>
       </c>
       <c r="F13">
-        <v>50.29624996315207</v>
+        <v>37.28085505581493</v>
       </c>
       <c r="I13">
-        <v>30.60944543480815</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6.434306353709459</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.67053239578724</v>
       </c>
       <c r="L13">
-        <v>10.98933953642788</v>
+        <v>8.558858195855324</v>
       </c>
       <c r="M13">
-        <v>19.63383762345973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11.66166556137547</v>
+      </c>
+      <c r="O13">
+        <v>28.35682351572141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.05485381434847</v>
+        <v>29.38804712862904</v>
       </c>
       <c r="C14">
-        <v>23.71948173515169</v>
+        <v>14.24575112272343</v>
       </c>
       <c r="D14">
-        <v>3.459371261867032</v>
+        <v>3.757956274442698</v>
       </c>
       <c r="E14">
-        <v>5.822802664219197</v>
+        <v>6.621849866249788</v>
       </c>
       <c r="F14">
-        <v>49.86426641119676</v>
+        <v>37.0020061489703</v>
       </c>
       <c r="I14">
-        <v>30.39352963532875</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6.431186282097359</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.44571679271893</v>
       </c>
       <c r="L14">
-        <v>10.87905780324836</v>
+        <v>8.504228064830034</v>
       </c>
       <c r="M14">
-        <v>19.44424156150519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.71307867043207</v>
+      </c>
+      <c r="O14">
+        <v>28.17060511014709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.88342111284663</v>
+        <v>29.21327451101647</v>
       </c>
       <c r="C15">
-        <v>23.57129537597687</v>
+        <v>14.17124907775077</v>
       </c>
       <c r="D15">
-        <v>3.459582125854019</v>
+        <v>3.770341799430839</v>
       </c>
       <c r="E15">
-        <v>5.817036546505065</v>
+        <v>6.617114693728464</v>
       </c>
       <c r="F15">
-        <v>49.59962318228212</v>
+        <v>36.83129512362597</v>
       </c>
       <c r="I15">
-        <v>30.26159524687573</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6.429370878769068</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.30732123545297</v>
       </c>
       <c r="L15">
-        <v>10.81125697838707</v>
+        <v>8.470759711652134</v>
       </c>
       <c r="M15">
-        <v>19.32765378758667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.74462144653968</v>
+      </c>
+      <c r="O15">
+        <v>28.0568124900316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.88998499197747</v>
+        <v>28.19867568894639</v>
       </c>
       <c r="C16">
-        <v>22.71365385214092</v>
+        <v>13.73915165891636</v>
       </c>
       <c r="D16">
-        <v>3.462359269885953</v>
+        <v>3.841020998961384</v>
       </c>
       <c r="E16">
-        <v>5.785211982232659</v>
+        <v>6.591414815387628</v>
       </c>
       <c r="F16">
-        <v>48.08205248351754</v>
+        <v>35.85438465954462</v>
       </c>
       <c r="I16">
-        <v>29.51021625330995</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6.420384074675413</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.50350794813045</v>
       </c>
       <c r="L16">
-        <v>10.47238033482584</v>
+        <v>8.278882350377209</v>
       </c>
       <c r="M16">
-        <v>18.65234559902028</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.92616585665062</v>
+      </c>
+      <c r="O16">
+        <v>27.40882164131798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.27037597465332</v>
+        <v>27.56442536652849</v>
       </c>
       <c r="C17">
-        <v>22.17965376636415</v>
+        <v>13.46940435119112</v>
       </c>
       <c r="D17">
-        <v>3.465370038020035</v>
+        <v>3.884154608298605</v>
       </c>
       <c r="E17">
-        <v>5.766737324438528</v>
+        <v>6.576897482853059</v>
       </c>
       <c r="F17">
-        <v>47.14981331506743</v>
+        <v>35.25627498902459</v>
       </c>
       <c r="I17">
-        <v>29.05323217712671</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6.416082217032695</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.00066113119828</v>
       </c>
       <c r="L17">
-        <v>10.28585943569919</v>
+        <v>8.161106819448486</v>
       </c>
       <c r="M17">
-        <v>18.23142085216186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>12.03824811443805</v>
+      </c>
+      <c r="O17">
+        <v>27.01492271610985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.91013189502828</v>
+        <v>27.19520548497503</v>
       </c>
       <c r="C18">
-        <v>21.86949710884505</v>
+        <v>13.31251167445975</v>
       </c>
       <c r="D18">
-        <v>3.467547308062203</v>
+        <v>3.908895905448246</v>
       </c>
       <c r="E18">
-        <v>5.756481871682808</v>
+        <v>6.568993923089065</v>
       </c>
       <c r="F18">
-        <v>46.61303062560069</v>
+        <v>34.91269603051886</v>
       </c>
       <c r="I18">
-        <v>28.79176827735292</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6.414033059803431</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.7077971818974</v>
       </c>
       <c r="L18">
-        <v>10.1784246352423</v>
+        <v>8.093346981478835</v>
       </c>
       <c r="M18">
-        <v>17.9867880388257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12.10298046062652</v>
+      </c>
+      <c r="O18">
+        <v>26.78968187482466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.78748499005922</v>
+        <v>27.06942926259908</v>
       </c>
       <c r="C19">
-        <v>21.76395459993313</v>
+        <v>13.25908926631284</v>
       </c>
       <c r="D19">
-        <v>3.468357892928228</v>
+        <v>3.917262562033223</v>
       </c>
       <c r="E19">
-        <v>5.753071880234137</v>
+        <v>6.566393430259295</v>
       </c>
       <c r="F19">
-        <v>46.43117553634835</v>
+        <v>34.79644209904778</v>
       </c>
       <c r="I19">
-        <v>28.70347216721139</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>6.413410458573352</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.60800758992216</v>
       </c>
       <c r="L19">
-        <v>10.14202178425431</v>
+        <v>8.07040214681647</v>
       </c>
       <c r="M19">
-        <v>17.90351762358511</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.12494380640177</v>
+      </c>
+      <c r="O19">
+        <v>26.7136451659204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.33673133869268</v>
+        <v>27.6323979085795</v>
       </c>
       <c r="C20">
-        <v>22.23680823267486</v>
+        <v>13.49829908200766</v>
       </c>
       <c r="D20">
-        <v>3.465002669638591</v>
+        <v>3.879570328035379</v>
       </c>
       <c r="E20">
-        <v>5.768665298002074</v>
+        <v>6.57839639763803</v>
       </c>
       <c r="F20">
-        <v>47.2491097648369</v>
+        <v>35.31989959838449</v>
       </c>
       <c r="I20">
-        <v>29.10173443624204</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>6.416495719041591</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.05456535376759</v>
       </c>
       <c r="L20">
-        <v>10.30573046679438</v>
+        <v>8.173646283889628</v>
       </c>
       <c r="M20">
-        <v>18.27648878382422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>12.02628938733707</v>
+      </c>
+      <c r="O20">
+        <v>27.05671719485927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.13687030256011</v>
+        <v>29.47162724698686</v>
       </c>
       <c r="C21">
-        <v>23.790396575729</v>
+        <v>14.28138669292066</v>
       </c>
       <c r="D21">
-        <v>3.459299266831462</v>
+        <v>3.752011244052384</v>
       </c>
       <c r="E21">
-        <v>5.825589801305518</v>
+        <v>6.624146365297394</v>
       </c>
       <c r="F21">
-        <v>49.9911579719563</v>
+        <v>37.08389152566873</v>
       </c>
       <c r="I21">
-        <v>30.45688201617048</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.432082647677142</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.51189389658752</v>
       </c>
       <c r="L21">
-        <v>10.91150200251167</v>
+        <v>8.520275479434808</v>
       </c>
       <c r="M21">
-        <v>19.50002473551852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.69796683075643</v>
+      </c>
+      <c r="O21">
+        <v>28.22524523649545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.28176206469788</v>
+        <v>30.63589502165473</v>
       </c>
       <c r="C22">
-        <v>24.78168372714736</v>
+        <v>14.77824920869843</v>
       </c>
       <c r="D22">
-        <v>3.460319351036731</v>
+        <v>3.667706659331914</v>
       </c>
       <c r="E22">
-        <v>5.86642072639029</v>
+        <v>6.658292984568884</v>
       </c>
       <c r="F22">
-        <v>51.78106112222564</v>
+        <v>38.24086330932501</v>
       </c>
       <c r="I22">
-        <v>31.35666771436251</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>6.446499321968314</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.43330969901313</v>
       </c>
       <c r="L22">
-        <v>11.36487993913454</v>
+        <v>8.746569395632319</v>
       </c>
       <c r="M22">
-        <v>20.27908711274126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.48567238478177</v>
+      </c>
+      <c r="O22">
+        <v>29.0010593916974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.6734570833243</v>
+        <v>30.01787894388091</v>
       </c>
       <c r="C23">
-        <v>24.25467173863832</v>
+        <v>14.51439926795616</v>
       </c>
       <c r="D23">
-        <v>3.459299233442703</v>
+        <v>3.712804612050226</v>
       </c>
       <c r="E23">
-        <v>5.844279528899309</v>
+        <v>6.639666104393055</v>
       </c>
       <c r="F23">
-        <v>50.82577243693177</v>
+        <v>37.62296485112318</v>
       </c>
       <c r="I23">
-        <v>30.87503581959274</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>6.438394692386234</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.94430156206059</v>
       </c>
       <c r="L23">
-        <v>11.12387893363892</v>
+        <v>8.625816238472547</v>
       </c>
       <c r="M23">
-        <v>19.86506937090999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.59877183915836</v>
+      </c>
+      <c r="O23">
+        <v>28.58585709335039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.30674463737996</v>
+        <v>27.60168180724859</v>
       </c>
       <c r="C24">
-        <v>22.21097854802429</v>
+        <v>13.48524142208662</v>
       </c>
       <c r="D24">
-        <v>3.465167374842844</v>
+        <v>3.881643054509877</v>
       </c>
       <c r="E24">
-        <v>5.767792524985197</v>
+        <v>6.57771736245024</v>
       </c>
       <c r="F24">
-        <v>47.20422044099272</v>
+        <v>35.2911340334427</v>
       </c>
       <c r="I24">
-        <v>29.07980265062972</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>6.416307458701623</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.03020701414508</v>
       </c>
       <c r="L24">
-        <v>10.2967474045014</v>
+        <v>8.167977343720267</v>
       </c>
       <c r="M24">
-        <v>18.25612180754178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>12.03169500869344</v>
+      </c>
+      <c r="O24">
+        <v>27.03781812341283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.60504521066422</v>
+        <v>24.82593467559297</v>
       </c>
       <c r="C25">
-        <v>19.89013173547284</v>
+        <v>12.30837416638371</v>
       </c>
       <c r="D25">
-        <v>3.488214065304978</v>
+        <v>4.06131025110224</v>
       </c>
       <c r="E25">
-        <v>5.699315101854106</v>
+        <v>6.527823213975796</v>
       </c>
       <c r="F25">
-        <v>43.27534621589992</v>
+        <v>32.79320850797723</v>
       </c>
       <c r="I25">
-        <v>27.19587232262527</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>6.408541874345521</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.8257300647252</v>
       </c>
       <c r="L25">
-        <v>9.5100190368057</v>
+        <v>7.673585084812064</v>
       </c>
       <c r="M25">
-        <v>16.42314871375719</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.50891694949315</v>
+      </c>
+      <c r="O25">
+        <v>25.41863259268212</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.6383397504628</v>
+        <v>15.58513964287853</v>
       </c>
       <c r="C2">
-        <v>11.38213826061168</v>
+        <v>12.22929931453888</v>
       </c>
       <c r="D2">
-        <v>4.193024828421342</v>
+        <v>4.000791587678763</v>
       </c>
       <c r="E2">
-        <v>6.50428421796418</v>
+        <v>29.49871384537685</v>
       </c>
       <c r="F2">
-        <v>30.97165284017035</v>
+        <v>29.16188381251191</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>19.17627492335989</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.07552734129666</v>
+        <v>14.85594524337089</v>
       </c>
       <c r="L2">
-        <v>7.310180883983189</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.86984338107947</v>
+        <v>13.22788532344958</v>
       </c>
       <c r="O2">
-        <v>24.2700142464687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.18018711515727</v>
+        <v>14.48563930944049</v>
       </c>
       <c r="C3">
-        <v>10.71650378130344</v>
+        <v>11.34210500204749</v>
       </c>
       <c r="D3">
-        <v>4.282590517015842</v>
+        <v>4.078914644034581</v>
       </c>
       <c r="E3">
-        <v>6.495924013395385</v>
+        <v>27.31611776284679</v>
       </c>
       <c r="F3">
-        <v>29.75153710646882</v>
+        <v>28.02039244073342</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>18.82846557524171</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.807077757042</v>
+        <v>13.82476749418832</v>
       </c>
       <c r="L3">
-        <v>7.065156893064346</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.12083850535527</v>
+        <v>13.41364104048194</v>
       </c>
       <c r="O3">
-        <v>23.51968487713291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.24785959929309</v>
+        <v>13.775080409265</v>
       </c>
       <c r="C4">
-        <v>10.28903708579841</v>
+        <v>10.77085960594419</v>
       </c>
       <c r="D4">
-        <v>4.3379253617806</v>
+        <v>4.126449843530722</v>
       </c>
       <c r="E4">
-        <v>6.494332988165116</v>
+        <v>25.91705380415474</v>
       </c>
       <c r="F4">
-        <v>29.01109209601895</v>
+        <v>27.3275238671554</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>18.63017274733458</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.98670598154342</v>
+        <v>13.15921792480044</v>
       </c>
       <c r="L4">
-        <v>6.915709562390824</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.27825549366611</v>
+        <v>13.53209523274717</v>
       </c>
       <c r="O4">
-        <v>23.0733177816544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.85877774365517</v>
+        <v>13.47647972721709</v>
       </c>
       <c r="C5">
-        <v>10.11013360532318</v>
+        <v>10.5312870802696</v>
       </c>
       <c r="D5">
-        <v>4.360586579690009</v>
+        <v>4.145748141342635</v>
       </c>
       <c r="E5">
-        <v>6.494546190050575</v>
+        <v>25.33166833648567</v>
       </c>
       <c r="F5">
-        <v>28.71183731252008</v>
+        <v>27.04741682708461</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>18.55309176363804</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.64182276156734</v>
+        <v>12.87973522747906</v>
       </c>
       <c r="L5">
-        <v>6.85512472278441</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.34325757488054</v>
+        <v>13.58144847218827</v>
       </c>
       <c r="O5">
-        <v>22.89510932139441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.79362428217258</v>
+        <v>13.42634765856653</v>
       </c>
       <c r="C6">
-        <v>10.08014320480258</v>
+        <v>10.4910930844667</v>
       </c>
       <c r="D6">
-        <v>4.364356935303243</v>
+        <v>4.148949212001942</v>
       </c>
       <c r="E6">
-        <v>6.494632789207253</v>
+        <v>25.23353207670513</v>
       </c>
       <c r="F6">
-        <v>28.66230538979256</v>
+        <v>27.00104802540051</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18.54051412918165</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.5839127723978</v>
+        <v>12.83282482580941</v>
       </c>
       <c r="L6">
-        <v>6.845085764734804</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.3541033199316</v>
+        <v>13.58970828121251</v>
       </c>
       <c r="O6">
-        <v>22.86574328911933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.24264909794211</v>
+        <v>13.77109014814647</v>
       </c>
       <c r="C7">
-        <v>10.28664336224512</v>
+        <v>10.76765627340844</v>
       </c>
       <c r="D7">
-        <v>4.338230493142565</v>
+        <v>4.126710356096637</v>
       </c>
       <c r="E7">
-        <v>6.494332413052787</v>
+        <v>25.90922140990479</v>
       </c>
       <c r="F7">
-        <v>29.00704577924328</v>
+        <v>27.32373683928129</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>18.62911827584865</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.9820977516103</v>
+        <v>13.15548234114178</v>
       </c>
       <c r="L7">
-        <v>6.914891123654905</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.27912864944124</v>
+        <v>13.53275647460555</v>
       </c>
       <c r="O7">
-        <v>23.07089934732973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.14332463758561</v>
+        <v>15.21331424702853</v>
       </c>
       <c r="C8">
-        <v>11.15652289204548</v>
+        <v>11.92881990336324</v>
       </c>
       <c r="D8">
-        <v>4.223852590235961</v>
+        <v>4.027841062286948</v>
       </c>
       <c r="E8">
-        <v>6.50064866515268</v>
+        <v>28.75811510053843</v>
       </c>
       <c r="F8">
-        <v>30.54931282499614</v>
+        <v>28.76675958856071</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>19.0531148388783</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.64670710965772</v>
+        <v>14.50704618309013</v>
       </c>
       <c r="L8">
-        <v>7.225526490726223</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.95571392103358</v>
+        <v>13.29100487631092</v>
       </c>
       <c r="O8">
-        <v>24.00837379858961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.7842720064996</v>
+        <v>17.76620757259016</v>
       </c>
       <c r="C9">
-        <v>12.71395532439347</v>
+        <v>14.00157066400404</v>
       </c>
       <c r="D9">
-        <v>4.000973179930576</v>
+        <v>3.828692352253348</v>
       </c>
       <c r="E9">
-        <v>6.542492033038891</v>
+        <v>33.89881079771527</v>
       </c>
       <c r="F9">
-        <v>33.63220922902162</v>
+        <v>31.65242253994326</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>20.01076388199226</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.58761814361951</v>
+        <v>16.90621889400184</v>
       </c>
       <c r="L9">
-        <v>7.840120316640176</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.34673482914944</v>
+        <v>12.85318683907652</v>
       </c>
       <c r="O9">
-        <v>25.95735553372729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.27045463253165</v>
+        <v>19.48317583036906</v>
       </c>
       <c r="C10">
-        <v>13.76969752862075</v>
+        <v>15.40922648363902</v>
       </c>
       <c r="D10">
-        <v>3.836088874271239</v>
+        <v>3.676245135306943</v>
       </c>
       <c r="E10">
-        <v>6.593132730793366</v>
+        <v>37.43788710325532</v>
       </c>
       <c r="F10">
-        <v>35.92269222977774</v>
+        <v>33.80059200444347</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20.79867108182168</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.56039755003421</v>
+        <v>18.52477405221459</v>
       </c>
       <c r="L10">
-        <v>8.292318415835934</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.91341214160942</v>
+        <v>12.5560007504414</v>
       </c>
       <c r="O10">
-        <v>27.45394772420441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.35467521095039</v>
+        <v>20.23210460193012</v>
       </c>
       <c r="C11">
-        <v>14.2315238020994</v>
+        <v>16.0269816154447</v>
       </c>
       <c r="D11">
-        <v>3.760326030522584</v>
+        <v>3.604785612034815</v>
       </c>
       <c r="E11">
-        <v>6.620938709459852</v>
+        <v>39.00518939966171</v>
       </c>
       <c r="F11">
-        <v>36.96935556665115</v>
+        <v>34.7840777998787</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>21.17724184326191</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.41929235541256</v>
+        <v>19.2320933140281</v>
       </c>
       <c r="L11">
-        <v>8.497828233623112</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.71910759833496</v>
+        <v>12.42683033501979</v>
       </c>
       <c r="O11">
-        <v>28.14882842288091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.75874395222849</v>
+        <v>20.51129796176442</v>
       </c>
       <c r="C12">
-        <v>14.40383731869859</v>
+        <v>16.25788881645208</v>
       </c>
       <c r="D12">
-        <v>3.731479988490567</v>
+        <v>3.577345459806066</v>
       </c>
       <c r="E12">
-        <v>6.632193301156748</v>
+        <v>39.59342978477301</v>
       </c>
       <c r="F12">
-        <v>37.36639689135956</v>
+        <v>35.15751559835343</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>21.32366986811278</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.73919489755913</v>
+        <v>19.49598777023147</v>
       </c>
       <c r="L12">
-        <v>8.57560729976751</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.64592075189009</v>
+        <v>12.37885992413945</v>
       </c>
       <c r="O12">
-        <v>28.41403336705229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.67200586248346</v>
+        <v>20.45136117777585</v>
       </c>
       <c r="C13">
-        <v>14.36683935380035</v>
+        <v>16.20828935651627</v>
       </c>
       <c r="D13">
-        <v>3.737700269700439</v>
+        <v>3.58327343585212</v>
       </c>
       <c r="E13">
-        <v>6.629736523821533</v>
+        <v>39.4669604734008</v>
       </c>
       <c r="F13">
-        <v>37.28085505581493</v>
+        <v>35.07704127547275</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>21.29199427471618</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.67053239578724</v>
+        <v>19.43932544461589</v>
       </c>
       <c r="L13">
-        <v>8.558858195855324</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.66166556137547</v>
+        <v>12.38914782626921</v>
       </c>
       <c r="O13">
-        <v>28.35682351572141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.38804712862904</v>
+        <v>20.255161089998</v>
       </c>
       <c r="C14">
-        <v>14.24575112272343</v>
+        <v>16.04603767876451</v>
       </c>
       <c r="D14">
-        <v>3.757956274442698</v>
+        <v>3.602536190899658</v>
       </c>
       <c r="E14">
-        <v>6.621849866249788</v>
+        <v>39.05368430993808</v>
       </c>
       <c r="F14">
-        <v>37.0020061489703</v>
+        <v>34.81477948513286</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>21.18922590470487</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.44571679271893</v>
+        <v>19.25388195162722</v>
       </c>
       <c r="L14">
-        <v>8.504228064830034</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.71307867043207</v>
+        <v>12.42286436446089</v>
       </c>
       <c r="O14">
-        <v>28.17060511014709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.21327451101647</v>
+        <v>20.13441526725583</v>
       </c>
       <c r="C15">
-        <v>14.17124907775077</v>
+        <v>15.94626734015742</v>
       </c>
       <c r="D15">
-        <v>3.770341799430839</v>
+        <v>3.614283224406429</v>
       </c>
       <c r="E15">
-        <v>6.617114693728464</v>
+        <v>38.79988340461433</v>
       </c>
       <c r="F15">
-        <v>36.83129512362597</v>
+        <v>34.65427335722003</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>21.12668297797126</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.30732123545297</v>
+        <v>19.13978459947873</v>
       </c>
       <c r="L15">
-        <v>8.470759711652134</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.74462144653968</v>
+        <v>12.44364219354902</v>
       </c>
       <c r="O15">
-        <v>28.0568124900316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.19867568894639</v>
+        <v>19.4336024884755</v>
       </c>
       <c r="C16">
-        <v>13.73915165891636</v>
+        <v>15.36841870648324</v>
       </c>
       <c r="D16">
-        <v>3.841020998961384</v>
+        <v>3.680866441660599</v>
       </c>
       <c r="E16">
-        <v>6.591414815387628</v>
+        <v>37.33467346209791</v>
       </c>
       <c r="F16">
-        <v>35.85438465954462</v>
+        <v>33.73645255842334</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20.77435027843028</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.50350794813045</v>
+        <v>18.47798380606482</v>
       </c>
       <c r="L16">
-        <v>8.278882350377209</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.92616585665062</v>
+        <v>12.56456978759634</v>
       </c>
       <c r="O16">
-        <v>27.40882164131798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.56442536652849</v>
+        <v>18.99558975626973</v>
       </c>
       <c r="C17">
-        <v>13.46940435119112</v>
+        <v>15.0082918703939</v>
       </c>
       <c r="D17">
-        <v>3.884154608298605</v>
+        <v>3.721121716512817</v>
       </c>
       <c r="E17">
-        <v>6.576897482853059</v>
+        <v>36.42547120653674</v>
       </c>
       <c r="F17">
-        <v>35.25627498902459</v>
+        <v>33.17505673047565</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20.56348139236547</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.00066113119828</v>
+        <v>18.06471459108836</v>
       </c>
       <c r="L17">
-        <v>8.161106819448486</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.03824811443805</v>
+        <v>12.64034751959425</v>
       </c>
       <c r="O17">
-        <v>27.01492271610985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.19520548497503</v>
+        <v>18.74061839003583</v>
       </c>
       <c r="C18">
-        <v>13.31251167445975</v>
+        <v>14.79901460751839</v>
       </c>
       <c r="D18">
-        <v>3.908895905448246</v>
+        <v>3.744082049067664</v>
       </c>
       <c r="E18">
-        <v>6.568993923089065</v>
+        <v>35.8984494849588</v>
       </c>
       <c r="F18">
-        <v>34.91269603051886</v>
+        <v>32.85273522109245</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>20.44407974938627</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.7077971818974</v>
+        <v>17.82427206508838</v>
       </c>
       <c r="L18">
-        <v>8.093346981478835</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.10298046062652</v>
+        <v>12.6844940638551</v>
       </c>
       <c r="O18">
-        <v>26.78968187482466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.06942926259908</v>
+        <v>18.65376166467614</v>
       </c>
       <c r="C19">
-        <v>13.25908926631284</v>
+        <v>14.72778265203884</v>
       </c>
       <c r="D19">
-        <v>3.917262562033223</v>
+        <v>3.751824943292287</v>
       </c>
       <c r="E19">
-        <v>6.566393430259295</v>
+        <v>35.71928512262763</v>
       </c>
       <c r="F19">
-        <v>34.79644209904778</v>
+        <v>32.74370013232343</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>20.40397121574284</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.60800758992216</v>
+        <v>17.7423854978334</v>
       </c>
       <c r="L19">
-        <v>8.07040214681647</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.12494380640177</v>
+        <v>12.69953559665196</v>
       </c>
       <c r="O19">
-        <v>26.7136451659204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.6323979085795</v>
+        <v>19.04252993761168</v>
       </c>
       <c r="C20">
-        <v>13.49829908200766</v>
+        <v>15.04684811619186</v>
       </c>
       <c r="D20">
-        <v>3.879570328035379</v>
+        <v>3.716857010573515</v>
       </c>
       <c r="E20">
-        <v>6.57839639763803</v>
+        <v>36.52267296244988</v>
       </c>
       <c r="F20">
-        <v>35.31989959838449</v>
+        <v>33.23475788224527</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>20.58573252724619</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.05456535376759</v>
+        <v>18.10899002358724</v>
       </c>
       <c r="L20">
-        <v>8.173646283889628</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.02628938733707</v>
+        <v>12.63222225609894</v>
       </c>
       <c r="O20">
-        <v>27.05671719485927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.47162724698686</v>
+        <v>20.31290768810336</v>
       </c>
       <c r="C21">
-        <v>14.28138669292066</v>
+        <v>16.09377502932104</v>
       </c>
       <c r="D21">
-        <v>3.752011244052384</v>
+        <v>3.596889235197878</v>
       </c>
       <c r="E21">
-        <v>6.624146365297394</v>
+        <v>39.17520877703956</v>
       </c>
       <c r="F21">
-        <v>37.08389152566873</v>
+        <v>34.89178329388144</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>21.21932657170654</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.51189389658752</v>
+        <v>19.30845661702483</v>
       </c>
       <c r="L21">
-        <v>8.520275479434808</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.69796683075643</v>
+        <v>12.41293468828214</v>
       </c>
       <c r="O21">
-        <v>28.22524523649545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.63589502165473</v>
+        <v>21.11758658112232</v>
       </c>
       <c r="C22">
-        <v>14.77824920869843</v>
+        <v>16.7605082403627</v>
       </c>
       <c r="D22">
-        <v>3.667706659331914</v>
+        <v>3.516223831600964</v>
       </c>
       <c r="E22">
-        <v>6.658292984568884</v>
+        <v>40.87862396384259</v>
       </c>
       <c r="F22">
-        <v>38.24086330932501</v>
+        <v>35.98076962439157</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>21.65142372896578</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.43330969901313</v>
+        <v>20.06946203164938</v>
       </c>
       <c r="L22">
-        <v>8.746569395632319</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.48567238478177</v>
+        <v>12.27516633000266</v>
       </c>
       <c r="O22">
-        <v>29.0010593916974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.01787894388091</v>
+        <v>20.69037913208692</v>
       </c>
       <c r="C23">
-        <v>14.51439926795616</v>
+        <v>16.40617805194137</v>
       </c>
       <c r="D23">
-        <v>3.712804612050226</v>
+        <v>3.559511779026261</v>
       </c>
       <c r="E23">
-        <v>6.639666104393055</v>
+        <v>39.97191600419296</v>
       </c>
       <c r="F23">
-        <v>37.62296485112318</v>
+        <v>35.39894472432329</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>21.4190920396536</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.94430156206059</v>
+        <v>19.66531784138084</v>
       </c>
       <c r="L23">
-        <v>8.625816238472547</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.59877183915836</v>
+        <v>12.34815802100147</v>
       </c>
       <c r="O23">
-        <v>28.58585709335039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.60168180724859</v>
+        <v>19.02131811499004</v>
       </c>
       <c r="C24">
-        <v>13.48524142208662</v>
+        <v>15.02942381733947</v>
       </c>
       <c r="D24">
-        <v>3.881643054509877</v>
+        <v>3.718785648414204</v>
       </c>
       <c r="E24">
-        <v>6.57771736245024</v>
+        <v>36.4787415344891</v>
       </c>
       <c r="F24">
-        <v>35.2911340334427</v>
+        <v>33.20776565178364</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>20.57566710287493</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.03020701414508</v>
+        <v>18.08898198892618</v>
       </c>
       <c r="L24">
-        <v>8.167977343720267</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.03169500869344</v>
+        <v>12.63589388398992</v>
       </c>
       <c r="O24">
-        <v>27.03781812341283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.82593467559297</v>
+        <v>17.1041552766194</v>
       </c>
       <c r="C25">
-        <v>12.30837416638371</v>
+        <v>13.4618030404838</v>
       </c>
       <c r="D25">
-        <v>4.06131025110224</v>
+        <v>3.883409671371077</v>
       </c>
       <c r="E25">
-        <v>6.527823213975796</v>
+        <v>32.55259022356444</v>
       </c>
       <c r="F25">
-        <v>32.79320850797723</v>
+        <v>30.86663985493087</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>19.73744877480817</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.8257300647252</v>
+        <v>16.28319766765167</v>
       </c>
       <c r="L25">
-        <v>7.673585084812064</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.50891694949315</v>
+        <v>12.96753305913039</v>
       </c>
       <c r="O25">
-        <v>25.41863259268212</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.58513964287853</v>
+        <v>11.63507054624224</v>
       </c>
       <c r="C2">
-        <v>12.22929931453888</v>
+        <v>7.930538139316953</v>
       </c>
       <c r="D2">
-        <v>4.000791587678763</v>
+        <v>5.896791424071353</v>
       </c>
       <c r="E2">
-        <v>29.49871384537685</v>
+        <v>16.35060966286246</v>
       </c>
       <c r="F2">
-        <v>29.16188381251191</v>
+        <v>31.76627013736633</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>19.17627492335989</v>
+        <v>24.76664481412136</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.85594524337089</v>
+        <v>12.1168156590501</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.22788532344958</v>
+        <v>19.7676499075444</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.48563930944049</v>
+        <v>11.32922955996976</v>
       </c>
       <c r="C3">
-        <v>11.34210500204749</v>
+        <v>7.622261269460802</v>
       </c>
       <c r="D3">
-        <v>4.078914644034581</v>
+        <v>5.908790502108486</v>
       </c>
       <c r="E3">
-        <v>27.31611776284679</v>
+        <v>15.43104943582788</v>
       </c>
       <c r="F3">
-        <v>28.02039244073342</v>
+        <v>31.59217834263301</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>18.82846557524171</v>
+        <v>24.76072662657392</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.82476749418832</v>
+        <v>11.89048108504723</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.41364104048194</v>
+        <v>19.82133918496908</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.775080409265</v>
+        <v>11.14079757440247</v>
       </c>
       <c r="C4">
-        <v>10.77085960594419</v>
+        <v>7.429163852767115</v>
       </c>
       <c r="D4">
-        <v>4.126449843530722</v>
+        <v>5.916309098691179</v>
       </c>
       <c r="E4">
-        <v>25.91705380415474</v>
+        <v>14.8428957536524</v>
       </c>
       <c r="F4">
-        <v>27.3275238671554</v>
+        <v>31.49368683623382</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>18.63017274733458</v>
+        <v>24.76249397089042</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.15921792480044</v>
+        <v>11.75299025392147</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.53209523274717</v>
+        <v>19.85620113457726</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.47647972721709</v>
+        <v>11.06397820849839</v>
       </c>
       <c r="C5">
-        <v>10.5312870802696</v>
+        <v>7.349654403407249</v>
       </c>
       <c r="D5">
-        <v>4.145748141342635</v>
+        <v>5.919411473706312</v>
       </c>
       <c r="E5">
-        <v>25.33166833648567</v>
+        <v>14.5975735728877</v>
       </c>
       <c r="F5">
-        <v>27.04741682708461</v>
+        <v>31.45569032339773</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>18.55309176363804</v>
+        <v>24.76456984480237</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.87973522747906</v>
+        <v>11.69741583384393</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.58144847218827</v>
+        <v>19.87088472241151</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.42634765856653</v>
+        <v>11.05122439681561</v>
       </c>
       <c r="C6">
-        <v>10.4910930844667</v>
+        <v>7.336406663743994</v>
       </c>
       <c r="D6">
-        <v>4.148949212001942</v>
+        <v>5.919928959359462</v>
       </c>
       <c r="E6">
-        <v>25.23353207670513</v>
+        <v>14.5565061471582</v>
       </c>
       <c r="F6">
-        <v>27.00104802540051</v>
+        <v>31.44951097298134</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>18.54051412918165</v>
+        <v>24.76499633333539</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.83282482580941</v>
+        <v>11.688217580295</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.58970828121251</v>
+        <v>19.87335173953781</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.77109014814647</v>
+        <v>11.13976151449102</v>
       </c>
       <c r="C7">
-        <v>10.76765627340844</v>
+        <v>7.42809469055926</v>
       </c>
       <c r="D7">
-        <v>4.126710356096637</v>
+        <v>5.916350781975117</v>
       </c>
       <c r="E7">
-        <v>25.90922140990479</v>
+        <v>14.83960970666797</v>
       </c>
       <c r="F7">
-        <v>27.32373683928129</v>
+        <v>31.4931657061899</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>18.62911827584865</v>
+        <v>24.76251648180601</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.15548234114178</v>
+        <v>11.75223881016096</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.53275647460555</v>
+        <v>19.85639723081888</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.21331424702853</v>
+        <v>11.52982676912367</v>
       </c>
       <c r="C8">
-        <v>11.92881990336324</v>
+        <v>7.825114753154784</v>
       </c>
       <c r="D8">
-        <v>4.027841062286948</v>
+        <v>5.900897637999581</v>
       </c>
       <c r="E8">
-        <v>28.75811510053843</v>
+        <v>16.03858008405627</v>
       </c>
       <c r="F8">
-        <v>28.76675958856071</v>
+        <v>31.70451677715083</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>19.0531148388783</v>
+        <v>24.76348193371844</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.50704618309013</v>
+        <v>12.03851762694499</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.29100487631092</v>
+        <v>19.78576844610426</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.76620757259016</v>
+        <v>12.2842034851214</v>
       </c>
       <c r="C9">
-        <v>14.00157066400404</v>
+        <v>8.568011937093429</v>
       </c>
       <c r="D9">
-        <v>3.828692352253348</v>
+        <v>5.871770276236498</v>
       </c>
       <c r="E9">
-        <v>33.89881079771527</v>
+        <v>18.23143819052415</v>
       </c>
       <c r="F9">
-        <v>31.65242253994326</v>
+        <v>32.18429079094876</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>20.01076388199226</v>
+        <v>24.80831289210481</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.90621889400184</v>
+        <v>12.6080691574256</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.85318683907652</v>
+        <v>19.66230567844637</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.48317583036906</v>
+        <v>12.82523132443718</v>
       </c>
       <c r="C10">
-        <v>15.40922648363902</v>
+        <v>9.08578750650805</v>
       </c>
       <c r="D10">
-        <v>3.676245135306943</v>
+        <v>5.851054636582391</v>
       </c>
       <c r="E10">
-        <v>37.43788710325532</v>
+        <v>19.85965522486208</v>
       </c>
       <c r="F10">
-        <v>33.80059200444347</v>
+        <v>32.57457172557516</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>20.79867108182168</v>
+        <v>24.86749567343276</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.52477405221459</v>
+        <v>13.02680132400799</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.5560007504414</v>
+        <v>19.58075486323613</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.23210460193012</v>
+        <v>13.06720586320496</v>
       </c>
       <c r="C11">
-        <v>16.0269816154447</v>
+        <v>9.314169961490324</v>
       </c>
       <c r="D11">
-        <v>3.604785612034815</v>
+        <v>5.841771971579065</v>
       </c>
       <c r="E11">
-        <v>39.00518939966171</v>
+        <v>20.5589751465383</v>
       </c>
       <c r="F11">
-        <v>34.7840777998787</v>
+        <v>32.75983199007929</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>21.17724184326191</v>
+        <v>24.90011683907963</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.2320933140281</v>
+        <v>13.21640717235754</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.42683033501979</v>
+        <v>19.54564177087198</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.51129796176442</v>
+        <v>13.15814373377797</v>
       </c>
       <c r="C12">
-        <v>16.25788881645208</v>
+        <v>9.399548520056509</v>
       </c>
       <c r="D12">
-        <v>3.577345459806066</v>
+        <v>5.838276587964648</v>
       </c>
       <c r="E12">
-        <v>39.59342978477301</v>
+        <v>20.81787895845547</v>
       </c>
       <c r="F12">
-        <v>35.15751559835343</v>
+        <v>32.83104958979783</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>21.32366986811278</v>
+        <v>24.91328740250825</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.49598777023147</v>
+        <v>13.28800505306842</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.37885992413945</v>
+        <v>19.53263075300217</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.45136117777585</v>
+        <v>13.13859089982836</v>
       </c>
       <c r="C13">
-        <v>16.20828935651627</v>
+        <v>9.381210961838478</v>
       </c>
       <c r="D13">
-        <v>3.58327343585212</v>
+        <v>5.839028510723185</v>
       </c>
       <c r="E13">
-        <v>39.4669604734008</v>
+        <v>20.76238184345388</v>
       </c>
       <c r="F13">
-        <v>35.07704127547275</v>
+        <v>32.81566506756827</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>21.29199427471618</v>
+        <v>24.91041455932931</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.43932544461589</v>
+        <v>13.2725953040495</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.38914782626921</v>
+        <v>19.53542020608925</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.255161089998</v>
+        <v>13.07470178484452</v>
       </c>
       <c r="C14">
-        <v>16.04603767876451</v>
+        <v>9.321216649589434</v>
       </c>
       <c r="D14">
-        <v>3.602536190899658</v>
+        <v>5.841484011196629</v>
       </c>
       <c r="E14">
-        <v>39.05368430993808</v>
+        <v>20.58039363580265</v>
       </c>
       <c r="F14">
-        <v>34.81477948513286</v>
+        <v>32.76567006392607</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>21.18922590470487</v>
+        <v>24.90118401603781</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.25388195162722</v>
+        <v>13.22230203576066</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.42286436446089</v>
+        <v>19.54456562288518</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.13441526725583</v>
+        <v>13.03547491474039</v>
       </c>
       <c r="C15">
-        <v>15.94626734015742</v>
+        <v>9.284322430181295</v>
       </c>
       <c r="D15">
-        <v>3.614283224406429</v>
+        <v>5.842990634199905</v>
       </c>
       <c r="E15">
-        <v>38.79988340461433</v>
+        <v>20.46815152124613</v>
       </c>
       <c r="F15">
-        <v>34.65427335722003</v>
+        <v>32.73518376861073</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>21.12668297797126</v>
+        <v>24.89563645370004</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.13978459947873</v>
+        <v>13.19146750542508</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.44364219354902</v>
+        <v>19.550204646202</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.4336024884755</v>
+        <v>12.80932589292043</v>
       </c>
       <c r="C16">
-        <v>15.36841870648324</v>
+        <v>9.070711453911368</v>
       </c>
       <c r="D16">
-        <v>3.680866441660599</v>
+        <v>5.851664073733141</v>
       </c>
       <c r="E16">
-        <v>37.33467346209791</v>
+        <v>19.81312363710412</v>
       </c>
       <c r="F16">
-        <v>33.73645255842334</v>
+        <v>32.56261594584297</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>20.77435027843028</v>
+        <v>24.86547833813966</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.47798380606482</v>
+        <v>13.01438593577</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.56456978759634</v>
+        <v>19.58308953642506</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.99558975626973</v>
+        <v>12.66945833421393</v>
       </c>
       <c r="C17">
-        <v>15.0082918703939</v>
+        <v>8.937777874002832</v>
       </c>
       <c r="D17">
-        <v>3.721121716512817</v>
+        <v>5.857020693160666</v>
       </c>
       <c r="E17">
-        <v>36.42547120653674</v>
+        <v>19.40071560867562</v>
       </c>
       <c r="F17">
-        <v>33.17505673047565</v>
+        <v>32.45869598927803</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>20.56348139236547</v>
+        <v>24.84843583829754</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.06471459108836</v>
+        <v>12.90547246716318</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.64034751959425</v>
+        <v>19.60377179033026</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.74061839003583</v>
+        <v>12.58862565573052</v>
       </c>
       <c r="C18">
-        <v>14.79901460751839</v>
+        <v>8.860648260627467</v>
       </c>
       <c r="D18">
-        <v>3.744082049067664</v>
+        <v>5.860114979892858</v>
       </c>
       <c r="E18">
-        <v>35.8984494849588</v>
+        <v>19.15961396647396</v>
       </c>
       <c r="F18">
-        <v>32.85273522109245</v>
+        <v>32.39965351607954</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>20.44407974938627</v>
+        <v>24.83916998708542</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.82427206508838</v>
+        <v>12.84275002351646</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.6844940638551</v>
+        <v>19.61585448263216</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.65376166467614</v>
+        <v>12.56119414316173</v>
       </c>
       <c r="C19">
-        <v>14.72778265203884</v>
+        <v>8.834420952439856</v>
       </c>
       <c r="D19">
-        <v>3.751824943292287</v>
+        <v>5.861164952218536</v>
       </c>
       <c r="E19">
-        <v>35.71928512262763</v>
+        <v>19.07731098687171</v>
       </c>
       <c r="F19">
-        <v>32.74370013232343</v>
+        <v>32.37978942634479</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>20.40397121574284</v>
+        <v>24.83612492252372</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.7423854978334</v>
+        <v>12.82150219608564</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.69953559665196</v>
+        <v>19.61997755514871</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.04252993761168</v>
+        <v>12.68438800407232</v>
       </c>
       <c r="C20">
-        <v>15.04684811619186</v>
+        <v>8.951998777527038</v>
       </c>
       <c r="D20">
-        <v>3.716857010573515</v>
+        <v>5.856449099054286</v>
       </c>
       <c r="E20">
-        <v>36.52267296244988</v>
+        <v>19.44502005921335</v>
       </c>
       <c r="F20">
-        <v>33.23475788224527</v>
+        <v>32.46968327158296</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>20.58573252724619</v>
+        <v>24.85019452200045</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.10899002358724</v>
+        <v>12.91707515436254</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.63222225609894</v>
+        <v>19.60155079453317</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.31290768810336</v>
+        <v>13.09348709746871</v>
       </c>
       <c r="C21">
-        <v>16.09377502932104</v>
+        <v>9.33886897486607</v>
       </c>
       <c r="D21">
-        <v>3.596889235197878</v>
+        <v>5.840762239003787</v>
       </c>
       <c r="E21">
-        <v>39.17520877703956</v>
+        <v>20.6340081984049</v>
       </c>
       <c r="F21">
-        <v>34.89178329388144</v>
+        <v>32.78032632544519</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>21.21932657170654</v>
+        <v>24.90387307861332</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.30845661702483</v>
+        <v>13.23708044656716</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.41293468828214</v>
+        <v>19.54187164131724</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.11758658112232</v>
+        <v>13.35678052385573</v>
       </c>
       <c r="C22">
-        <v>16.7605082403627</v>
+        <v>9.585242468286809</v>
       </c>
       <c r="D22">
-        <v>3.516223831600964</v>
+        <v>5.830624905838371</v>
       </c>
       <c r="E22">
-        <v>40.87862396384259</v>
+        <v>21.37662842324282</v>
       </c>
       <c r="F22">
-        <v>35.98076962439157</v>
+        <v>32.98952565969058</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>21.65142372896578</v>
+        <v>24.94371948928167</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.06946203164938</v>
+        <v>13.44501415903962</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.27516633000266</v>
+        <v>19.50453234551685</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.69037913208692</v>
+        <v>13.21665882075062</v>
       </c>
       <c r="C23">
-        <v>16.40617805194137</v>
+        <v>9.454362652382155</v>
       </c>
       <c r="D23">
-        <v>3.559511779026261</v>
+        <v>5.836025045048142</v>
       </c>
       <c r="E23">
-        <v>39.97191600419296</v>
+        <v>20.98341901854132</v>
       </c>
       <c r="F23">
-        <v>35.39894472432329</v>
+        <v>32.87732284845554</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>21.4190920396536</v>
+        <v>24.92201758795334</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.66531784138084</v>
+        <v>13.33417056200213</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.34815802100147</v>
+        <v>19.52430867593997</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.02131811499004</v>
+        <v>12.67763960402961</v>
       </c>
       <c r="C24">
-        <v>15.02942381733947</v>
+        <v>8.945571695017684</v>
       </c>
       <c r="D24">
-        <v>3.718785648414204</v>
+        <v>5.856707470905453</v>
       </c>
       <c r="E24">
-        <v>36.4787415344891</v>
+        <v>19.42500248796415</v>
       </c>
       <c r="F24">
-        <v>33.20776565178364</v>
+        <v>32.46471372946995</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>20.57566710287493</v>
+        <v>24.84939776343443</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.08898198892618</v>
+        <v>12.91182990582755</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.63589388398992</v>
+        <v>19.60255430804276</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.1041552766194</v>
+        <v>12.08198253152986</v>
       </c>
       <c r="C25">
-        <v>13.4618030404838</v>
+        <v>8.371555263831036</v>
       </c>
       <c r="D25">
-        <v>3.883409671371077</v>
+        <v>5.879527460027592</v>
       </c>
       <c r="E25">
-        <v>32.55259022356444</v>
+        <v>17.63262602567063</v>
       </c>
       <c r="F25">
-        <v>30.86663985493087</v>
+        <v>32.04770359443593</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>19.73744877480817</v>
+        <v>24.79157776242099</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.28319766765167</v>
+        <v>12.45360935518256</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.96753305913039</v>
+        <v>19.69409679287172</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.63507054624224</v>
+        <v>15.58513964287851</v>
       </c>
       <c r="C2">
-        <v>7.930538139316953</v>
+        <v>12.22929931453879</v>
       </c>
       <c r="D2">
-        <v>5.896791424071353</v>
+        <v>4.000791587678964</v>
       </c>
       <c r="E2">
-        <v>16.35060966286246</v>
+        <v>29.49871384537678</v>
       </c>
       <c r="F2">
-        <v>31.76627013736633</v>
+        <v>29.16188381251198</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>24.76664481412136</v>
+        <v>19.17627492336004</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.1168156590501</v>
+        <v>14.85594524337081</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.7676499075444</v>
+        <v>13.22788532344967</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.32922955996976</v>
+        <v>14.48563930944049</v>
       </c>
       <c r="C3">
-        <v>7.622261269460802</v>
+        <v>11.34210500204753</v>
       </c>
       <c r="D3">
-        <v>5.908790502108486</v>
+        <v>4.07891464403465</v>
       </c>
       <c r="E3">
-        <v>15.43104943582788</v>
+        <v>27.31611776284691</v>
       </c>
       <c r="F3">
-        <v>31.59217834263301</v>
+        <v>28.0203924407335</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>24.76072662657392</v>
+        <v>18.8284655752418</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.89048108504723</v>
+        <v>13.8247674941883</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.82133918496908</v>
+        <v>13.41364104048198</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.14079757440247</v>
+        <v>13.77508040926496</v>
       </c>
       <c r="C4">
-        <v>7.429163852767115</v>
+        <v>10.77085960594425</v>
       </c>
       <c r="D4">
-        <v>5.916309098691179</v>
+        <v>4.126449843530587</v>
       </c>
       <c r="E4">
-        <v>14.8428957536524</v>
+        <v>25.91705380415486</v>
       </c>
       <c r="F4">
-        <v>31.49368683623382</v>
+        <v>27.3275238671556</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>24.76249397089042</v>
+        <v>18.63017274733472</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.75299025392147</v>
+        <v>13.15921792480041</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.85620113457726</v>
+        <v>13.53209523274722</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.06397820849839</v>
+        <v>13.47647972721716</v>
       </c>
       <c r="C5">
-        <v>7.349654403407249</v>
+        <v>10.53128708026959</v>
       </c>
       <c r="D5">
-        <v>5.919411473706312</v>
+        <v>4.145748141342702</v>
       </c>
       <c r="E5">
-        <v>14.5975735728877</v>
+        <v>25.33166833648569</v>
       </c>
       <c r="F5">
-        <v>31.45569032339773</v>
+        <v>27.04741682708465</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>24.76456984480237</v>
+        <v>18.55309176363805</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.69741583384393</v>
+        <v>12.8797352274791</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.87088472241151</v>
+        <v>13.58144847218825</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.05122439681561</v>
+        <v>13.42634765856655</v>
       </c>
       <c r="C6">
-        <v>7.336406663743994</v>
+        <v>10.49109308446658</v>
       </c>
       <c r="D6">
-        <v>5.919928959359462</v>
+        <v>4.148949212002276</v>
       </c>
       <c r="E6">
-        <v>14.5565061471582</v>
+        <v>25.23353207670512</v>
       </c>
       <c r="F6">
-        <v>31.44951097298134</v>
+        <v>27.0010480254006</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>24.76499633333539</v>
+        <v>18.54051412918176</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.688217580295</v>
+        <v>12.83282482580941</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.87335173953781</v>
+        <v>13.58970828121256</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.13976151449102</v>
+        <v>13.77109014814652</v>
       </c>
       <c r="C7">
-        <v>7.42809469055926</v>
+        <v>10.76765627340843</v>
       </c>
       <c r="D7">
-        <v>5.916350781975117</v>
+        <v>4.126710356096437</v>
       </c>
       <c r="E7">
-        <v>14.83960970666797</v>
+        <v>25.90922140990479</v>
       </c>
       <c r="F7">
-        <v>31.4931657061899</v>
+        <v>27.32373683928136</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>24.76251648180601</v>
+        <v>18.62911827584865</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.75223881016096</v>
+        <v>13.15548234114176</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.85639723081888</v>
+        <v>13.5327564746055</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.52982676912367</v>
+        <v>15.21331424702859</v>
       </c>
       <c r="C8">
-        <v>7.825114753154784</v>
+        <v>11.92881990336332</v>
       </c>
       <c r="D8">
-        <v>5.900897637999581</v>
+        <v>4.027841062286948</v>
       </c>
       <c r="E8">
-        <v>16.03858008405627</v>
+        <v>28.75811510053848</v>
       </c>
       <c r="F8">
-        <v>31.70451677715083</v>
+        <v>28.76675958856069</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>24.76348193371844</v>
+        <v>19.05311483887826</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.03851762694499</v>
+        <v>14.50704618309022</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.78576844610426</v>
+        <v>13.29100487631082</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.2842034851214</v>
+        <v>17.76620757259011</v>
       </c>
       <c r="C9">
-        <v>8.568011937093429</v>
+        <v>14.00157066400401</v>
       </c>
       <c r="D9">
-        <v>5.871770276236498</v>
+        <v>3.828692352253213</v>
       </c>
       <c r="E9">
-        <v>18.23143819052415</v>
+        <v>33.89881079771524</v>
       </c>
       <c r="F9">
-        <v>32.18429079094876</v>
+        <v>31.6524225399434</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>24.80831289210481</v>
+        <v>20.01076388199237</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.6080691574256</v>
+        <v>16.90621889400183</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.66230567844637</v>
+        <v>12.85318683907659</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.82523132443718</v>
+        <v>19.48317583036908</v>
       </c>
       <c r="C10">
-        <v>9.08578750650805</v>
+        <v>15.40922648363884</v>
       </c>
       <c r="D10">
-        <v>5.851054636582391</v>
+        <v>3.676245135307076</v>
       </c>
       <c r="E10">
-        <v>19.85965522486208</v>
+        <v>37.43788710325548</v>
       </c>
       <c r="F10">
-        <v>32.57457172557516</v>
+        <v>33.80059200444349</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>24.86749567343276</v>
+        <v>20.79867108182168</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.02680132400799</v>
+        <v>18.52477405221454</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.58075486323613</v>
+        <v>12.55600075044136</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.06720586320496</v>
+        <v>20.23210460193019</v>
       </c>
       <c r="C11">
-        <v>9.314169961490324</v>
+        <v>16.02698161544475</v>
       </c>
       <c r="D11">
-        <v>5.841771971579065</v>
+        <v>3.604785612034747</v>
       </c>
       <c r="E11">
-        <v>20.5589751465383</v>
+        <v>39.00518939966175</v>
       </c>
       <c r="F11">
-        <v>32.75983199007929</v>
+        <v>34.7840777998788</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>24.90011683907963</v>
+        <v>21.17724184326192</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.21640717235754</v>
+        <v>19.23209331402819</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.54564177087198</v>
+        <v>12.42683033501979</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.15814373377797</v>
+        <v>20.5112979617644</v>
       </c>
       <c r="C12">
-        <v>9.399548520056509</v>
+        <v>16.25788881645202</v>
       </c>
       <c r="D12">
-        <v>5.838276587964648</v>
+        <v>3.577345459806199</v>
       </c>
       <c r="E12">
-        <v>20.81787895845547</v>
+        <v>39.59342978477301</v>
       </c>
       <c r="F12">
-        <v>32.83104958979783</v>
+        <v>35.15751559835344</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>24.91328740250825</v>
+        <v>21.32366986811283</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.28800505306842</v>
+        <v>19.49598777023142</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.53263075300217</v>
+        <v>12.37885992413946</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.13859089982836</v>
+        <v>20.45136117777579</v>
       </c>
       <c r="C13">
-        <v>9.381210961838478</v>
+        <v>16.20828935651629</v>
       </c>
       <c r="D13">
-        <v>5.839028510723185</v>
+        <v>3.583273435852389</v>
       </c>
       <c r="E13">
-        <v>20.76238184345388</v>
+        <v>39.46696047340084</v>
       </c>
       <c r="F13">
-        <v>32.81566506756827</v>
+        <v>35.07704127547272</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>24.91041455932931</v>
+        <v>21.29199427471623</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.2725953040495</v>
+        <v>19.43932544461586</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.53542020608925</v>
+        <v>12.38914782626924</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.07470178484452</v>
+        <v>20.25516108999812</v>
       </c>
       <c r="C14">
-        <v>9.321216649589434</v>
+        <v>16.04603767876447</v>
       </c>
       <c r="D14">
-        <v>5.841484011196629</v>
+        <v>3.602536190899726</v>
       </c>
       <c r="E14">
-        <v>20.58039363580265</v>
+        <v>39.05368430993813</v>
       </c>
       <c r="F14">
-        <v>32.76567006392607</v>
+        <v>34.81477948513293</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>24.90118401603781</v>
+        <v>21.18922590470487</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.22230203576066</v>
+        <v>19.25388195162727</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.54456562288518</v>
+        <v>12.42286436446085</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.03547491474039</v>
+        <v>20.13441526725581</v>
       </c>
       <c r="C15">
-        <v>9.284322430181295</v>
+        <v>15.94626734015747</v>
       </c>
       <c r="D15">
-        <v>5.842990634199905</v>
+        <v>3.614283224406361</v>
       </c>
       <c r="E15">
-        <v>20.46815152124613</v>
+        <v>38.79988340461429</v>
       </c>
       <c r="F15">
-        <v>32.73518376861073</v>
+        <v>34.65427335722011</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>24.89563645370004</v>
+        <v>21.12668297797132</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.19146750542508</v>
+        <v>19.13978459947874</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.550204646202</v>
+        <v>12.44364219354906</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.80932589292043</v>
+        <v>19.43360248847551</v>
       </c>
       <c r="C16">
-        <v>9.070711453911368</v>
+        <v>15.36841870648307</v>
       </c>
       <c r="D16">
-        <v>5.851664073733141</v>
+        <v>3.680866441660934</v>
       </c>
       <c r="E16">
-        <v>19.81312363710412</v>
+        <v>37.33467346209803</v>
       </c>
       <c r="F16">
-        <v>32.56261594584297</v>
+        <v>33.73645255842335</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>24.86547833813966</v>
+        <v>20.77435027843029</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.01438593577</v>
+        <v>18.47798380606478</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.58308953642506</v>
+        <v>12.56456978759634</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.66945833421393</v>
+        <v>18.99558975626978</v>
       </c>
       <c r="C17">
-        <v>8.937777874002832</v>
+        <v>15.00829187039396</v>
       </c>
       <c r="D17">
-        <v>5.857020693160666</v>
+        <v>3.721121716512614</v>
       </c>
       <c r="E17">
-        <v>19.40071560867562</v>
+        <v>36.42547120653676</v>
       </c>
       <c r="F17">
-        <v>32.45869598927803</v>
+        <v>33.17505673047567</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>24.84843583829754</v>
+        <v>20.56348139236544</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.90547246716318</v>
+        <v>18.06471459108845</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.60377179033026</v>
+        <v>12.6403475195942</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.58862565573052</v>
+        <v>18.74061839003582</v>
       </c>
       <c r="C18">
-        <v>8.860648260627467</v>
+        <v>14.79901460751846</v>
       </c>
       <c r="D18">
-        <v>5.860114979892858</v>
+        <v>3.744082049067597</v>
       </c>
       <c r="E18">
-        <v>19.15961396647396</v>
+        <v>35.89844948495889</v>
       </c>
       <c r="F18">
-        <v>32.39965351607954</v>
+        <v>32.8527352210925</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>24.83916998708542</v>
+        <v>20.44407974938633</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.84275002351646</v>
+        <v>17.82427206508842</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.61585448263216</v>
+        <v>12.68449406385511</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.56119414316173</v>
+        <v>18.65376166467619</v>
       </c>
       <c r="C19">
-        <v>8.834420952439856</v>
+        <v>14.72778265203882</v>
       </c>
       <c r="D19">
-        <v>5.861164952218536</v>
+        <v>3.751824943292287</v>
       </c>
       <c r="E19">
-        <v>19.07731098687171</v>
+        <v>35.71928512262778</v>
       </c>
       <c r="F19">
-        <v>32.37978942634479</v>
+        <v>32.74370013232348</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>24.83612492252372</v>
+        <v>20.40397121574287</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.82150219608564</v>
+        <v>17.7423854978334</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.61997755514871</v>
+        <v>12.69953559665198</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.68438800407232</v>
+        <v>19.04252993761155</v>
       </c>
       <c r="C20">
-        <v>8.951998777527038</v>
+        <v>15.04684811619176</v>
       </c>
       <c r="D20">
-        <v>5.856449099054286</v>
+        <v>3.716857010573717</v>
       </c>
       <c r="E20">
-        <v>19.44502005921335</v>
+        <v>36.52267296244966</v>
       </c>
       <c r="F20">
-        <v>32.46968327158296</v>
+        <v>33.23475788224533</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>24.85019452200045</v>
+        <v>20.58573252724637</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.91707515436254</v>
+        <v>18.1089900235871</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.60155079453317</v>
+        <v>12.63222225609915</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.09348709746871</v>
+        <v>20.31290768810328</v>
       </c>
       <c r="C21">
-        <v>9.33886897486607</v>
+        <v>16.09377502932111</v>
       </c>
       <c r="D21">
-        <v>5.840762239003787</v>
+        <v>3.596889235198012</v>
       </c>
       <c r="E21">
-        <v>20.6340081984049</v>
+        <v>39.17520877703961</v>
       </c>
       <c r="F21">
-        <v>32.78032632544519</v>
+        <v>34.89178329388148</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>24.90387307861332</v>
+        <v>21.21932657170663</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.23708044656716</v>
+        <v>19.30845661702481</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.54187164131724</v>
+        <v>12.41293468828218</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.35678052385573</v>
+        <v>21.1175865811223</v>
       </c>
       <c r="C22">
-        <v>9.585242468286809</v>
+        <v>16.7605082403626</v>
       </c>
       <c r="D22">
-        <v>5.830624905838371</v>
+        <v>3.516223831601164</v>
       </c>
       <c r="E22">
-        <v>21.37662842324282</v>
+        <v>40.87862396384256</v>
       </c>
       <c r="F22">
-        <v>32.98952565969058</v>
+        <v>35.98076962439161</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>24.94371948928167</v>
+        <v>21.65142372896584</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.44501415903962</v>
+        <v>20.06946203164934</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.50453234551685</v>
+        <v>12.2751663300027</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.21665882075062</v>
+        <v>20.69037913208692</v>
       </c>
       <c r="C23">
-        <v>9.454362652382155</v>
+        <v>16.4061780519415</v>
       </c>
       <c r="D23">
-        <v>5.836025045048142</v>
+        <v>3.559511779026263</v>
       </c>
       <c r="E23">
-        <v>20.98341901854132</v>
+        <v>39.97191600419304</v>
       </c>
       <c r="F23">
-        <v>32.87732284845554</v>
+        <v>35.3989447243233</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>24.92201758795334</v>
+        <v>21.41909203965358</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.33417056200213</v>
+        <v>19.66531784138087</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.52430867593997</v>
+        <v>12.34815802100141</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.67763960402961</v>
+        <v>19.02131811499002</v>
       </c>
       <c r="C24">
-        <v>8.945571695017684</v>
+        <v>15.02942381733941</v>
       </c>
       <c r="D24">
-        <v>5.856707470905453</v>
+        <v>3.718785648414272</v>
       </c>
       <c r="E24">
-        <v>19.42500248796415</v>
+        <v>36.4787415344891</v>
       </c>
       <c r="F24">
-        <v>32.46471372946995</v>
+        <v>33.20776565178363</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>24.84939776343443</v>
+        <v>20.57566710287495</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.91182990582755</v>
+        <v>18.08898198892613</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.60255430804276</v>
+        <v>12.63589388398991</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.08198253152986</v>
+        <v>17.10415527661952</v>
       </c>
       <c r="C25">
-        <v>8.371555263831036</v>
+        <v>13.46180304048383</v>
       </c>
       <c r="D25">
-        <v>5.879527460027592</v>
+        <v>3.883409671370876</v>
       </c>
       <c r="E25">
-        <v>17.63262602567063</v>
+        <v>32.55259022356453</v>
       </c>
       <c r="F25">
-        <v>32.04770359443593</v>
+        <v>30.86663985493087</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>24.79157776242099</v>
+        <v>19.73744877480809</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.45360935518256</v>
+        <v>16.28319766765177</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.69409679287172</v>
+        <v>12.96753305913035</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.58513964287851</v>
+        <v>13.80043401694664</v>
       </c>
       <c r="C2">
-        <v>12.22929931453879</v>
+        <v>7.734526570726316</v>
       </c>
       <c r="D2">
-        <v>4.000791587678964</v>
+        <v>5.302285848512049</v>
       </c>
       <c r="E2">
-        <v>29.49871384537678</v>
+        <v>8.692015113193346</v>
       </c>
       <c r="F2">
-        <v>29.16188381251198</v>
+        <v>19.76106153055717</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.157696989901857</v>
       </c>
       <c r="I2">
-        <v>19.17627492336004</v>
+        <v>3.038544398902592</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>14.85594524337081</v>
+        <v>16.13690959063818</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.28427405857655</v>
       </c>
       <c r="N2">
-        <v>13.22788532344967</v>
+        <v>7.33667850341701</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.89778087694151</v>
+      </c>
+      <c r="Q2">
+        <v>16.31264694175362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.48563930944049</v>
+        <v>12.93647777560829</v>
       </c>
       <c r="C3">
-        <v>11.34210500204753</v>
+        <v>7.517008057791685</v>
       </c>
       <c r="D3">
-        <v>4.07891464403465</v>
+        <v>5.129767021598405</v>
       </c>
       <c r="E3">
-        <v>27.31611776284691</v>
+        <v>8.43738851194736</v>
       </c>
       <c r="F3">
-        <v>28.0203924407335</v>
+        <v>19.40446750710207</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.339532238095563</v>
       </c>
       <c r="I3">
-        <v>18.8284655752418</v>
+        <v>3.18098151429671</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>13.8247674941883</v>
+        <v>16.12096687597344</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.6320528318231</v>
       </c>
       <c r="N3">
-        <v>13.41364104048198</v>
+        <v>7.065288456451807</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.03221411616957</v>
+      </c>
+      <c r="Q3">
+        <v>16.21688555725101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.77508040926496</v>
+        <v>12.374100543009</v>
       </c>
       <c r="C4">
-        <v>10.77085960594425</v>
+        <v>7.38022455266905</v>
       </c>
       <c r="D4">
-        <v>4.126449843530587</v>
+        <v>5.020261338960746</v>
       </c>
       <c r="E4">
-        <v>25.91705380415486</v>
+        <v>8.275400203912749</v>
       </c>
       <c r="F4">
-        <v>27.3275238671556</v>
+        <v>19.18989068563528</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.455488566865844</v>
       </c>
       <c r="I4">
-        <v>18.63017274733472</v>
+        <v>3.272577877560029</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>13.15921792480041</v>
+        <v>16.11433561352959</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.20962916838327</v>
       </c>
       <c r="N4">
-        <v>13.53209523274722</v>
+        <v>6.893382077504681</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>13.11630060765241</v>
+      </c>
+      <c r="Q4">
+        <v>16.16305351466692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.47647972721716</v>
+        <v>12.1318210603642</v>
       </c>
       <c r="C5">
-        <v>10.53128708026959</v>
+        <v>7.326877996961924</v>
       </c>
       <c r="D5">
-        <v>4.145748141342702</v>
+        <v>4.975885906873463</v>
       </c>
       <c r="E5">
-        <v>25.33166833648569</v>
+        <v>8.205828951479626</v>
       </c>
       <c r="F5">
-        <v>27.04741682708465</v>
+        <v>19.09725794714452</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.504150733116748</v>
       </c>
       <c r="I5">
-        <v>18.55309176363805</v>
+        <v>3.313681640208233</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>12.8797352274791</v>
+        <v>16.10750355392916</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.03170188089914</v>
       </c>
       <c r="N5">
-        <v>13.58144847218825</v>
+        <v>6.822508148091933</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.15054380239815</v>
+      </c>
+      <c r="Q5">
+        <v>16.13772662770411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.42634765856655</v>
+        <v>12.08482642826492</v>
       </c>
       <c r="C6">
-        <v>10.49109308446658</v>
+        <v>7.321904879447152</v>
       </c>
       <c r="D6">
-        <v>4.148949212002276</v>
+        <v>4.969837237565785</v>
       </c>
       <c r="E6">
-        <v>25.23353207670512</v>
+        <v>8.191518381121565</v>
       </c>
       <c r="F6">
-        <v>27.0010480254006</v>
+        <v>19.07415724385665</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.512679594868324</v>
       </c>
       <c r="I6">
-        <v>18.54051412918176</v>
+        <v>3.324076931551615</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>12.83282482580941</v>
+        <v>16.10041563112384</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.00144072482547</v>
       </c>
       <c r="N6">
-        <v>13.58970828121256</v>
+        <v>6.811197855415574</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.15574534620874</v>
+      </c>
+      <c r="Q6">
+        <v>16.12794135536899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.77109014814652</v>
+        <v>12.35409326631347</v>
       </c>
       <c r="C7">
-        <v>10.76765627340843</v>
+        <v>7.390185529287832</v>
       </c>
       <c r="D7">
-        <v>4.126710356096437</v>
+        <v>5.023388734755877</v>
       </c>
       <c r="E7">
-        <v>25.90922140990479</v>
+        <v>8.267242354814082</v>
       </c>
       <c r="F7">
-        <v>27.32373683928136</v>
+        <v>19.16749100258996</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.457164927487479</v>
       </c>
       <c r="I7">
-        <v>18.62911827584865</v>
+        <v>3.282405672130932</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>13.15548234114176</v>
+        <v>16.09788519461279</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.20621333298242</v>
       </c>
       <c r="N7">
-        <v>13.5327564746055</v>
+        <v>6.893872546598176</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>13.11542277642512</v>
+      </c>
+      <c r="Q7">
+        <v>16.1473153580357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.21331424702859</v>
+        <v>13.48864991650161</v>
       </c>
       <c r="C8">
-        <v>11.92881990336332</v>
+        <v>7.674075738251765</v>
       </c>
       <c r="D8">
-        <v>4.027841062286948</v>
+        <v>5.248372437123539</v>
       </c>
       <c r="E8">
-        <v>28.75811510053848</v>
+        <v>8.596249770054854</v>
       </c>
       <c r="F8">
-        <v>28.76675958856069</v>
+        <v>19.60994331855021</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.220782046981638</v>
       </c>
       <c r="I8">
-        <v>19.05311483887826</v>
+        <v>3.098659759016497</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>14.50704618309022</v>
+        <v>16.10927709510208</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.06268875620887</v>
       </c>
       <c r="N8">
-        <v>13.29100487631082</v>
+        <v>7.246091594690629</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.94227431279699</v>
+      </c>
+      <c r="Q8">
+        <v>16.2584724647442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.76620757259011</v>
+        <v>15.48563686343194</v>
       </c>
       <c r="C9">
-        <v>14.00157066400401</v>
+        <v>8.18638999651248</v>
       </c>
       <c r="D9">
-        <v>3.828692352253213</v>
+        <v>5.653600467202434</v>
       </c>
       <c r="E9">
-        <v>33.89881079771524</v>
+        <v>9.206915691536224</v>
       </c>
       <c r="F9">
-        <v>31.6524225399434</v>
+        <v>20.54537316280412</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>1.789162778918746</v>
       </c>
       <c r="I9">
-        <v>20.01076388199237</v>
+        <v>2.755612559205456</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>16.90621889400183</v>
+        <v>16.18635575331007</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.5681115668533</v>
       </c>
       <c r="N9">
-        <v>12.85318683907659</v>
+        <v>7.889772844134739</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.61655619547736</v>
+      </c>
+      <c r="Q9">
+        <v>16.54361927834007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.48317583036908</v>
+        <v>16.75148114055099</v>
       </c>
       <c r="C10">
-        <v>15.40922648363884</v>
+        <v>8.584860547052459</v>
       </c>
       <c r="D10">
-        <v>3.676245135307076</v>
+        <v>5.951132108740088</v>
       </c>
       <c r="E10">
-        <v>37.43788710325548</v>
+        <v>9.464319807427112</v>
       </c>
       <c r="F10">
-        <v>33.80059200444349</v>
+        <v>21.14300322577701</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>1.621564837309068</v>
       </c>
       <c r="I10">
-        <v>20.79867108182168</v>
+        <v>2.534434979958933</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>18.52477405221454</v>
+        <v>16.18171244568608</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.55512772334412</v>
       </c>
       <c r="N10">
-        <v>12.55600075044136</v>
+        <v>8.200669599687146</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.38093427329566</v>
+      </c>
+      <c r="Q10">
+        <v>16.69943104380738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.23210460193019</v>
+        <v>16.8325275247229</v>
       </c>
       <c r="C11">
-        <v>16.02698161544475</v>
+        <v>9.089093338694569</v>
       </c>
       <c r="D11">
-        <v>3.604785612034747</v>
+        <v>6.240900362495093</v>
       </c>
       <c r="E11">
-        <v>39.00518939966175</v>
+        <v>8.32334190082085</v>
       </c>
       <c r="F11">
-        <v>34.7840777998788</v>
+        <v>20.56985269174861</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>2.638392618292147</v>
       </c>
       <c r="I11">
-        <v>21.17724184326192</v>
+        <v>2.504205263540995</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>19.23209331402819</v>
+        <v>15.55771515432291</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.89362162792487</v>
       </c>
       <c r="N11">
-        <v>12.42683033501979</v>
+        <v>7.22811730751975</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.26651342124653</v>
+      </c>
+      <c r="Q11">
+        <v>16.1317812431975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.5112979617644</v>
+        <v>16.65356298991221</v>
       </c>
       <c r="C12">
-        <v>16.25788881645202</v>
+        <v>9.446845972643608</v>
       </c>
       <c r="D12">
-        <v>3.577345459806199</v>
+        <v>6.424053458483233</v>
       </c>
       <c r="E12">
-        <v>39.59342978477301</v>
+        <v>7.506392053174436</v>
       </c>
       <c r="F12">
-        <v>35.15751559835344</v>
+        <v>19.97512285300155</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.072955977371956</v>
       </c>
       <c r="I12">
-        <v>21.32366986811283</v>
+        <v>2.509153457688108</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>19.49598777023142</v>
+        <v>15.06088959694038</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.97995628284131</v>
       </c>
       <c r="N12">
-        <v>12.37885992413946</v>
+        <v>6.3839932740825</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.23634049886637</v>
+      </c>
+      <c r="Q12">
+        <v>15.63457346569539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.45136117777579</v>
+        <v>16.23868923705157</v>
       </c>
       <c r="C13">
-        <v>16.20828935651629</v>
+        <v>9.729602524676224</v>
       </c>
       <c r="D13">
-        <v>3.583273435852389</v>
+        <v>6.5438932577376</v>
       </c>
       <c r="E13">
-        <v>39.46696047340084</v>
+        <v>6.935334707963116</v>
       </c>
       <c r="F13">
-        <v>35.07704127547272</v>
+        <v>19.28733765764573</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.52134541111595</v>
       </c>
       <c r="I13">
-        <v>21.29199427471623</v>
+        <v>2.528165126857341</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>19.43932544461586</v>
+        <v>14.60869229192356</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.87911330869096</v>
       </c>
       <c r="N13">
-        <v>12.38914782626924</v>
+        <v>5.599516050220009</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.26466734228582</v>
+      </c>
+      <c r="Q13">
+        <v>15.13594157730626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.25516108999812</v>
+        <v>15.83158695417816</v>
       </c>
       <c r="C14">
-        <v>16.04603767876447</v>
+        <v>9.901596424027781</v>
       </c>
       <c r="D14">
-        <v>3.602536190899726</v>
+        <v>6.601374175318813</v>
       </c>
       <c r="E14">
-        <v>39.05368430993813</v>
+        <v>6.716502179807176</v>
       </c>
       <c r="F14">
-        <v>34.81477948513293</v>
+        <v>18.75503739338719</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.540501158976969</v>
       </c>
       <c r="I14">
-        <v>21.18922590470487</v>
+        <v>2.571937837692612</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>19.25388195162727</v>
+        <v>14.31300795036747</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.72241075754051</v>
       </c>
       <c r="N14">
-        <v>12.42286436446085</v>
+        <v>5.10543987551381</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.31165658572641</v>
+      </c>
+      <c r="Q14">
+        <v>14.78359740645072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.13441526725581</v>
+        <v>15.67512218106337</v>
       </c>
       <c r="C15">
-        <v>15.94626734015747</v>
+        <v>9.929849915364604</v>
       </c>
       <c r="D15">
-        <v>3.614283224406361</v>
+        <v>6.602817523125617</v>
       </c>
       <c r="E15">
-        <v>38.79988340461429</v>
+        <v>6.687537051576053</v>
       </c>
       <c r="F15">
-        <v>34.65427335722011</v>
+        <v>18.5998085820228</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.776902522682519</v>
       </c>
       <c r="I15">
-        <v>21.12668297797132</v>
+        <v>2.596065601412083</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>19.13978459947874</v>
+        <v>14.24579274063347</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.64319188772317</v>
       </c>
       <c r="N15">
-        <v>12.44364219354906</v>
+        <v>4.99395695524885</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.33351392299596</v>
+      </c>
+      <c r="Q15">
+        <v>14.69382849040374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.43360248847551</v>
+        <v>15.18395838473905</v>
       </c>
       <c r="C16">
-        <v>15.36841870648307</v>
+        <v>9.721337702901849</v>
       </c>
       <c r="D16">
-        <v>3.680866441660934</v>
+        <v>6.46143849107639</v>
       </c>
       <c r="E16">
-        <v>37.33467346209803</v>
+        <v>6.666455533416976</v>
       </c>
       <c r="F16">
-        <v>33.73645255842335</v>
+        <v>18.44709638886965</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.570805723538223</v>
       </c>
       <c r="I16">
-        <v>20.77435027843029</v>
+        <v>2.689573183877554</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>18.47798380606478</v>
+        <v>14.33269614609907</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.25249948860156</v>
       </c>
       <c r="N16">
-        <v>12.56456978759634</v>
+        <v>4.992037323827212</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.41940414050884</v>
+      </c>
+      <c r="Q16">
+        <v>14.71358723504947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.99558975626978</v>
+        <v>15.02659797328073</v>
       </c>
       <c r="C17">
-        <v>15.00829187039396</v>
+        <v>9.463193482792414</v>
       </c>
       <c r="D17">
-        <v>3.721121716512614</v>
+        <v>6.319691123335651</v>
       </c>
       <c r="E17">
-        <v>36.42547120653676</v>
+        <v>6.733114888730926</v>
       </c>
       <c r="F17">
-        <v>33.17505673047567</v>
+        <v>18.61969536336712</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.839200821628048</v>
       </c>
       <c r="I17">
-        <v>20.56348139236544</v>
+        <v>2.738977080221705</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>18.06471459108845</v>
+        <v>14.55364934390002</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.03365276372941</v>
       </c>
       <c r="N17">
-        <v>12.6403475195942</v>
+        <v>5.242309645200346</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.4612123890836</v>
+      </c>
+      <c r="Q17">
+        <v>14.91682188038352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.74061839003582</v>
+        <v>15.15958654479782</v>
       </c>
       <c r="C18">
-        <v>14.79901460751846</v>
+        <v>9.133715783657063</v>
       </c>
       <c r="D18">
-        <v>3.744082049067597</v>
+        <v>6.161306219957241</v>
       </c>
       <c r="E18">
-        <v>35.89844948495889</v>
+        <v>7.060207565064967</v>
       </c>
       <c r="F18">
-        <v>32.8527352210925</v>
+        <v>19.10235416400755</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.596127291153123</v>
       </c>
       <c r="I18">
-        <v>20.44407974938633</v>
+        <v>2.743015938108192</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>17.82427206508842</v>
+        <v>14.932721605187</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.944511060213</v>
       </c>
       <c r="N18">
-        <v>12.68449406385511</v>
+        <v>5.804597015294746</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.47641452925616</v>
+      </c>
+      <c r="Q18">
+        <v>15.31103674971428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.65376166467619</v>
+        <v>15.49549679353172</v>
       </c>
       <c r="C19">
-        <v>14.72778265203882</v>
+        <v>8.818287973749104</v>
       </c>
       <c r="D19">
-        <v>3.751824943292287</v>
+        <v>6.01238086955496</v>
       </c>
       <c r="E19">
-        <v>35.71928512262778</v>
+        <v>7.782683844432723</v>
       </c>
       <c r="F19">
-        <v>32.74370013232348</v>
+        <v>19.75705256964806</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.127541140630941</v>
       </c>
       <c r="I19">
-        <v>20.40397121574287</v>
+        <v>2.728113454617141</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>17.7423854978334</v>
+        <v>15.39789226005062</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.96672540453032</v>
       </c>
       <c r="N19">
-        <v>12.69953559665198</v>
+        <v>6.644861233814606</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.47976184587544</v>
+      </c>
+      <c r="Q19">
+        <v>15.80591392536471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.04252993761155</v>
+        <v>16.37748250350742</v>
       </c>
       <c r="C20">
-        <v>15.04684811619176</v>
+        <v>8.514419926200695</v>
       </c>
       <c r="D20">
-        <v>3.716857010573717</v>
+        <v>5.885819981004562</v>
       </c>
       <c r="E20">
-        <v>36.52267296244966</v>
+        <v>9.371697627339445</v>
       </c>
       <c r="F20">
-        <v>33.23475788224533</v>
+        <v>20.9210363212914</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>1.596228096799269</v>
       </c>
       <c r="I20">
-        <v>20.58573252724637</v>
+        <v>2.624159830297607</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>18.1089900235871</v>
+        <v>16.12947243510914</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.30017035454048</v>
       </c>
       <c r="N20">
-        <v>12.63222225609915</v>
+        <v>8.118407263796559</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.4398005386631</v>
+      </c>
+      <c r="Q20">
+        <v>16.60801704240058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.31290768810328</v>
+        <v>17.41806920099394</v>
       </c>
       <c r="C21">
-        <v>16.09377502932111</v>
+        <v>8.756513027800922</v>
       </c>
       <c r="D21">
-        <v>3.596889235198012</v>
+        <v>6.078139593985435</v>
       </c>
       <c r="E21">
-        <v>39.17520877703961</v>
+        <v>9.808435820459607</v>
       </c>
       <c r="F21">
-        <v>34.89178329388148</v>
+        <v>21.54347271944212</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>1.76719088811151</v>
       </c>
       <c r="I21">
-        <v>21.21932657170663</v>
+        <v>2.569356470048036</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>19.30845661702481</v>
+        <v>16.25094367353058</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.03950139577321</v>
       </c>
       <c r="N21">
-        <v>12.41293468828218</v>
+        <v>8.551761667068543</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.26573586965447</v>
+      </c>
+      <c r="Q21">
+        <v>16.8571764341046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.1175865811223</v>
+        <v>18.05475679384018</v>
       </c>
       <c r="C22">
-        <v>16.7605082403626</v>
+        <v>8.916575254679008</v>
       </c>
       <c r="D22">
-        <v>3.516223831601164</v>
+        <v>6.204811332675516</v>
       </c>
       <c r="E22">
-        <v>40.87862396384256</v>
+        <v>10.01447371205577</v>
       </c>
       <c r="F22">
-        <v>35.98076962439161</v>
+        <v>21.92682593501497</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>1.906928787958817</v>
       </c>
       <c r="I22">
-        <v>21.65142372896584</v>
+        <v>2.673268530770116</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>20.06946203164934</v>
+        <v>16.31820658212798</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.49865956684755</v>
       </c>
       <c r="N22">
-        <v>12.2751663300027</v>
+        <v>8.758975525999922</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.15251167659165</v>
+      </c>
+      <c r="Q22">
+        <v>17.006655020853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.69037913208692</v>
+        <v>17.7320429986243</v>
       </c>
       <c r="C23">
-        <v>16.4061780519415</v>
+        <v>8.819894597087618</v>
       </c>
       <c r="D23">
-        <v>3.559511779026263</v>
+        <v>6.133669886915309</v>
       </c>
       <c r="E23">
-        <v>39.97191600419304</v>
+        <v>9.912142088133129</v>
       </c>
       <c r="F23">
-        <v>35.3989447243233</v>
+        <v>21.74405861215489</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>1.833561626922067</v>
       </c>
       <c r="I23">
-        <v>21.41909203965358</v>
+        <v>2.612641725065056</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>19.66531784138087</v>
+        <v>16.30050231392593</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.25634467410283</v>
       </c>
       <c r="N23">
-        <v>12.34815802100141</v>
+        <v>8.647484557119293</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.21365572654022</v>
+      </c>
+      <c r="Q23">
+        <v>16.94339887614636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.02131811499002</v>
+        <v>16.4264246982626</v>
       </c>
       <c r="C24">
-        <v>15.02942381733941</v>
+        <v>8.465679308714231</v>
       </c>
       <c r="D24">
-        <v>3.718785648414272</v>
+        <v>5.862556440527168</v>
       </c>
       <c r="E24">
-        <v>36.4787415344891</v>
+        <v>9.501606516939425</v>
       </c>
       <c r="F24">
-        <v>33.20776565178363</v>
+        <v>21.02086192034597</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>1.573629462148079</v>
       </c>
       <c r="I24">
-        <v>20.57566710287495</v>
+        <v>2.602695535574388</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>18.08898198892613</v>
+        <v>16.21171573842454</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.29739376709776</v>
       </c>
       <c r="N24">
-        <v>12.63589388398991</v>
+        <v>8.215075621169415</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.44609634297568</v>
+      </c>
+      <c r="Q24">
+        <v>16.68742645868761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.10415527661952</v>
+        <v>14.94742371391825</v>
       </c>
       <c r="C25">
-        <v>13.46180304048383</v>
+        <v>8.069085451173512</v>
       </c>
       <c r="D25">
-        <v>3.883409671370876</v>
+        <v>5.553619895713042</v>
       </c>
       <c r="E25">
-        <v>32.55259022356453</v>
+        <v>9.035135755023152</v>
       </c>
       <c r="F25">
-        <v>30.86663985493087</v>
+        <v>20.25355012571869</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>1.904022914660561</v>
       </c>
       <c r="I25">
-        <v>19.73744877480809</v>
+        <v>2.862294041227265</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>16.28319766765177</v>
+        <v>16.13366989392617</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.17823960384692</v>
       </c>
       <c r="N25">
-        <v>12.96753305913035</v>
+        <v>7.723181483965994</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.70174184526768</v>
+      </c>
+      <c r="Q25">
+        <v>16.43514648090619</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.80043401694664</v>
+        <v>13.42875132054442</v>
       </c>
       <c r="C2">
-        <v>7.734526570726316</v>
+        <v>7.649217085922251</v>
       </c>
       <c r="D2">
-        <v>5.302285848512049</v>
+        <v>5.328634166411013</v>
       </c>
       <c r="E2">
-        <v>8.692015113193346</v>
+        <v>8.533515846288442</v>
       </c>
       <c r="F2">
-        <v>19.76106153055717</v>
+        <v>19.1239708027992</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.157696989901857</v>
+        <v>2.053353809937853</v>
       </c>
       <c r="I2">
-        <v>3.038544398902592</v>
+        <v>2.911776993070599</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>16.13690959063818</v>
+        <v>15.48106609723786</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.84114660933789</v>
       </c>
       <c r="M2">
-        <v>11.28427405857655</v>
+        <v>10.07759209587878</v>
       </c>
       <c r="N2">
-        <v>7.33667850341701</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.30500973007925</v>
       </c>
       <c r="P2">
-        <v>12.89778087694151</v>
+        <v>7.448047321654501</v>
       </c>
       <c r="Q2">
-        <v>16.31264694175362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.74714570499719</v>
+      </c>
+      <c r="S2">
+        <v>15.77925064448135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.93647777560829</v>
+        <v>12.60259101246153</v>
       </c>
       <c r="C3">
-        <v>7.517008057791685</v>
+        <v>7.360140490360208</v>
       </c>
       <c r="D3">
-        <v>5.129767021598405</v>
+        <v>5.137037561780012</v>
       </c>
       <c r="E3">
-        <v>8.43738851194736</v>
+        <v>8.301636661860481</v>
       </c>
       <c r="F3">
-        <v>19.40446750710207</v>
+        <v>18.82206327480573</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.339532238095563</v>
+        <v>2.224602898090888</v>
       </c>
       <c r="I3">
-        <v>3.18098151429671</v>
+        <v>3.040588353137689</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>16.12096687597344</v>
+        <v>15.5043843785689</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.95340696849279</v>
       </c>
       <c r="M3">
-        <v>10.6320528318231</v>
+        <v>10.022591061293</v>
       </c>
       <c r="N3">
-        <v>7.065288456451807</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.65892187896291</v>
       </c>
       <c r="P3">
-        <v>13.03221411616957</v>
+        <v>7.179054688411843</v>
       </c>
       <c r="Q3">
-        <v>16.21688555725101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.874998384697</v>
+      </c>
+      <c r="S3">
+        <v>15.72389257478798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.374100543009</v>
+        <v>12.06391791277613</v>
       </c>
       <c r="C4">
-        <v>7.38022455266905</v>
+        <v>7.178402437648704</v>
       </c>
       <c r="D4">
-        <v>5.020261338960746</v>
+        <v>5.015435589089121</v>
       </c>
       <c r="E4">
-        <v>8.275400203912749</v>
+        <v>8.153939849294883</v>
       </c>
       <c r="F4">
-        <v>19.18989068563528</v>
+        <v>18.6406757355027</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.455488566865844</v>
+        <v>2.333848613689313</v>
       </c>
       <c r="I4">
-        <v>3.272577877560029</v>
+        <v>3.123740623516809</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>16.11433561352959</v>
+        <v>15.52096054128174</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.02284183090539</v>
       </c>
       <c r="M4">
-        <v>10.20962916838327</v>
+        <v>10.00648824716088</v>
       </c>
       <c r="N4">
-        <v>6.893382077504681</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.2405453144309</v>
       </c>
       <c r="P4">
-        <v>13.11630060765241</v>
+        <v>7.008984426344425</v>
       </c>
       <c r="Q4">
-        <v>16.16305351466692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.955270056556</v>
+      </c>
+      <c r="S4">
+        <v>15.69421309736872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.1318210603642</v>
+        <v>11.83138736801907</v>
       </c>
       <c r="C5">
-        <v>7.326877996961924</v>
+        <v>7.107249764626703</v>
       </c>
       <c r="D5">
-        <v>4.975885906873463</v>
+        <v>4.966093281680799</v>
       </c>
       <c r="E5">
-        <v>8.205828951479626</v>
+        <v>8.090299351773201</v>
       </c>
       <c r="F5">
-        <v>19.09725794714452</v>
+        <v>18.56147899575049</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.504150733116748</v>
+        <v>2.379717480464681</v>
       </c>
       <c r="I5">
-        <v>3.313681640208233</v>
+        <v>3.161863261578644</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>16.10750355392916</v>
+        <v>15.52350865104191</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.04683433249459</v>
       </c>
       <c r="M5">
-        <v>10.03170188089914</v>
+        <v>10.00165968493317</v>
       </c>
       <c r="N5">
-        <v>6.822508148091933</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.06434529059666</v>
       </c>
       <c r="P5">
-        <v>13.15054380239815</v>
+        <v>6.938949489856185</v>
       </c>
       <c r="Q5">
-        <v>16.13772662770411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.98811703731294</v>
+      </c>
+      <c r="S5">
+        <v>15.67862461164196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.08482642826492</v>
+        <v>11.78600300498656</v>
       </c>
       <c r="C6">
-        <v>7.321904879447152</v>
+        <v>7.10020987115068</v>
       </c>
       <c r="D6">
-        <v>4.969837237565785</v>
+        <v>4.959275336306689</v>
       </c>
       <c r="E6">
-        <v>8.191518381121565</v>
+        <v>8.077020595865958</v>
       </c>
       <c r="F6">
-        <v>19.07415724385665</v>
+        <v>18.54065096973395</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.512679594868324</v>
+        <v>2.387773634637558</v>
       </c>
       <c r="I6">
-        <v>3.324076931551615</v>
+        <v>3.172395899179842</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>16.10041563112384</v>
+        <v>15.51814989965346</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.04541743942573</v>
       </c>
       <c r="M6">
-        <v>10.00144072482547</v>
+        <v>9.997781487090924</v>
       </c>
       <c r="N6">
-        <v>6.811197855415574</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.03437883185238</v>
       </c>
       <c r="P6">
-        <v>13.15574534620874</v>
+        <v>6.927778396179066</v>
       </c>
       <c r="Q6">
-        <v>16.12794135536899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.99321887206425</v>
+      </c>
+      <c r="S6">
+        <v>15.67053279556476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.35409326631347</v>
+        <v>12.04401379133732</v>
       </c>
       <c r="C7">
-        <v>7.390185529287832</v>
+        <v>7.190600522528825</v>
       </c>
       <c r="D7">
-        <v>5.023388734755877</v>
+        <v>5.018660326724843</v>
       </c>
       <c r="E7">
-        <v>8.267242354814082</v>
+        <v>8.145982389886388</v>
       </c>
       <c r="F7">
-        <v>19.16749100258996</v>
+        <v>18.61860894463122</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.457164927487479</v>
+        <v>2.335471787321199</v>
       </c>
       <c r="I7">
-        <v>3.282405672130932</v>
+        <v>3.135191550484453</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>16.09788519461279</v>
+        <v>15.50517812335984</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.00876941788198</v>
       </c>
       <c r="M7">
-        <v>10.20621333298242</v>
+        <v>9.996901765606534</v>
       </c>
       <c r="N7">
-        <v>6.893872546598176</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.23716129149578</v>
       </c>
       <c r="P7">
-        <v>13.11542277642512</v>
+        <v>7.009470986142198</v>
       </c>
       <c r="Q7">
-        <v>16.1473153580357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.95474272456998</v>
+      </c>
+      <c r="S7">
+        <v>15.67886191620333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.48864991650161</v>
+        <v>13.12988062211178</v>
       </c>
       <c r="C8">
-        <v>7.674075738251765</v>
+        <v>7.567597313322986</v>
       </c>
       <c r="D8">
-        <v>5.248372437123539</v>
+        <v>5.2684359073183</v>
       </c>
       <c r="E8">
-        <v>8.596249770054854</v>
+        <v>8.445691157785516</v>
       </c>
       <c r="F8">
-        <v>19.60994331855021</v>
+        <v>18.99201303433718</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.220782046981638</v>
+        <v>2.112808368176523</v>
       </c>
       <c r="I8">
-        <v>3.098659759016497</v>
+        <v>2.969343901470765</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>16.10927709510208</v>
+        <v>15.4680036038684</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.86226526906442</v>
       </c>
       <c r="M8">
-        <v>11.06268875620887</v>
+        <v>10.04098610208475</v>
       </c>
       <c r="N8">
-        <v>7.246091594690629</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.08549610266725</v>
       </c>
       <c r="P8">
-        <v>12.94227431279699</v>
+        <v>7.358201060493763</v>
       </c>
       <c r="Q8">
-        <v>16.2584724647442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.78988310824536</v>
+      </c>
+      <c r="S8">
+        <v>15.73953336704405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.48563686343194</v>
+        <v>15.07975987724101</v>
       </c>
       <c r="C9">
-        <v>8.18638999651248</v>
+        <v>8.248739605021223</v>
       </c>
       <c r="D9">
-        <v>5.653600467202434</v>
+        <v>5.71862503851739</v>
       </c>
       <c r="E9">
-        <v>9.206915691536224</v>
+        <v>9.001609815136696</v>
       </c>
       <c r="F9">
-        <v>20.54537316280412</v>
+        <v>19.78998161377572</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.789162778918746</v>
+        <v>1.706511622026532</v>
       </c>
       <c r="I9">
-        <v>2.755612559205456</v>
+        <v>2.658145173593255</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>16.18635575331007</v>
+        <v>15.44156963468554</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.60176117498682</v>
       </c>
       <c r="M9">
-        <v>12.5681115668533</v>
+        <v>10.28521406984665</v>
       </c>
       <c r="N9">
-        <v>7.889772844134739</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.5769816268437</v>
       </c>
       <c r="P9">
-        <v>12.61655619547736</v>
+        <v>7.99775823550863</v>
       </c>
       <c r="Q9">
-        <v>16.54361927834007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.48158204975033</v>
+      </c>
+      <c r="S9">
+        <v>15.92039107481687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.75148114055099</v>
+        <v>16.31290718829194</v>
       </c>
       <c r="C10">
-        <v>8.584860547052459</v>
+        <v>8.76763372370424</v>
       </c>
       <c r="D10">
-        <v>5.951132108740088</v>
+        <v>6.046000154186693</v>
       </c>
       <c r="E10">
-        <v>9.464319807427112</v>
+        <v>9.226707331686352</v>
       </c>
       <c r="F10">
-        <v>21.14300322577701</v>
+        <v>20.29621206138859</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.621564837309068</v>
+        <v>1.684904830154311</v>
       </c>
       <c r="I10">
-        <v>2.534434979958933</v>
+        <v>2.521309227634009</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>16.18171244568608</v>
+        <v>15.36689720386229</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.36401505724741</v>
       </c>
       <c r="M10">
-        <v>13.55512772334412</v>
+        <v>10.48864990806235</v>
       </c>
       <c r="N10">
-        <v>8.200669599687146</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.55519270552782</v>
       </c>
       <c r="P10">
-        <v>12.38093427329566</v>
+        <v>8.306591471030382</v>
       </c>
       <c r="Q10">
-        <v>16.69943104380738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.26310883541635</v>
+      </c>
+      <c r="S10">
+        <v>16.00516783586279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.8325275247229</v>
+        <v>16.41185738944121</v>
       </c>
       <c r="C11">
-        <v>9.089093338694569</v>
+        <v>9.339181917321493</v>
       </c>
       <c r="D11">
-        <v>6.240900362495093</v>
+        <v>6.340997539730736</v>
       </c>
       <c r="E11">
-        <v>8.32334190082085</v>
+        <v>8.126017825832335</v>
       </c>
       <c r="F11">
-        <v>20.56985269174861</v>
+        <v>19.75782711404219</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.638392618292147</v>
+        <v>2.663956239443874</v>
       </c>
       <c r="I11">
-        <v>2.504205263540995</v>
+        <v>2.58388240554289</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>15.55771515432291</v>
+        <v>14.79683258070104</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.88618436062337</v>
       </c>
       <c r="M11">
-        <v>13.89362162792487</v>
+        <v>10.14063865345481</v>
       </c>
       <c r="N11">
-        <v>7.22811730751975</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.8933218619013</v>
       </c>
       <c r="P11">
-        <v>12.26651342124653</v>
+        <v>7.329021355847876</v>
       </c>
       <c r="Q11">
-        <v>16.1317812431975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.1795969784546</v>
+      </c>
+      <c r="S11">
+        <v>15.47112439496296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.65356298991221</v>
+        <v>16.26265697322303</v>
       </c>
       <c r="C12">
-        <v>9.446845972643608</v>
+        <v>9.715749398402957</v>
       </c>
       <c r="D12">
-        <v>6.424053458483233</v>
+        <v>6.52127816225213</v>
       </c>
       <c r="E12">
-        <v>7.506392053174436</v>
+        <v>7.358462729534788</v>
       </c>
       <c r="F12">
-        <v>19.97512285300155</v>
+        <v>19.21229730814771</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.072955977371956</v>
+        <v>4.049480467359146</v>
       </c>
       <c r="I12">
-        <v>2.509153457688108</v>
+        <v>2.58885226364261</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>15.06088959694038</v>
+        <v>14.3599459015691</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.56488982757391</v>
       </c>
       <c r="M12">
-        <v>13.97995628284131</v>
+        <v>9.812968740885125</v>
       </c>
       <c r="N12">
-        <v>6.3839932740825</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.98105517001704</v>
       </c>
       <c r="P12">
-        <v>12.23634049886637</v>
+        <v>6.480445182805725</v>
       </c>
       <c r="Q12">
-        <v>15.63457346569539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.16895328665969</v>
+      </c>
+      <c r="S12">
+        <v>15.01753136756385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.23868923705157</v>
+        <v>15.8896564384756</v>
       </c>
       <c r="C13">
-        <v>9.729602524676224</v>
+        <v>9.986889189845956</v>
       </c>
       <c r="D13">
-        <v>6.5438932577376</v>
+        <v>6.632291122997803</v>
       </c>
       <c r="E13">
-        <v>6.935334707963116</v>
+        <v>6.845428428595334</v>
       </c>
       <c r="F13">
-        <v>19.28733765764573</v>
+        <v>18.58892079880977</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.52134541111595</v>
+        <v>5.502464764744297</v>
       </c>
       <c r="I13">
-        <v>2.528165126857341</v>
+        <v>2.557617220253457</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>14.60869229192356</v>
+        <v>13.97634811287634</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.31665221908924</v>
       </c>
       <c r="M13">
-        <v>13.87911330869096</v>
+        <v>9.467612821727855</v>
       </c>
       <c r="N13">
-        <v>5.599516050220009</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.88309125702647</v>
       </c>
       <c r="P13">
-        <v>12.26466734228582</v>
+        <v>5.691860090258475</v>
       </c>
       <c r="Q13">
-        <v>15.13594157730626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.20927091153777</v>
+      </c>
+      <c r="S13">
+        <v>14.57355864881597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.83158695417816</v>
+        <v>15.51803766570024</v>
       </c>
       <c r="C14">
-        <v>9.901596424027781</v>
+        <v>10.13689815772525</v>
       </c>
       <c r="D14">
-        <v>6.601374175318813</v>
+        <v>6.680837235225747</v>
       </c>
       <c r="E14">
-        <v>6.716502179807176</v>
+        <v>6.66856785021762</v>
       </c>
       <c r="F14">
-        <v>18.75503739338719</v>
+        <v>18.10888578382131</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.540501158976969</v>
+        <v>6.523184627301307</v>
       </c>
       <c r="I14">
-        <v>2.571937837692612</v>
+        <v>2.521383673404481</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>14.31300795036747</v>
+        <v>13.73182008683672</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.17100986127812</v>
       </c>
       <c r="M14">
-        <v>13.72241075754051</v>
+        <v>9.22161847658003</v>
       </c>
       <c r="N14">
-        <v>5.10543987551381</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.72908911960454</v>
       </c>
       <c r="P14">
-        <v>12.31165658572641</v>
+        <v>5.195007604557807</v>
       </c>
       <c r="Q14">
-        <v>14.78359740645072</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.26082883709018</v>
+      </c>
+      <c r="S14">
+        <v>14.26431443739676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.67512218106337</v>
+        <v>15.3729862057673</v>
       </c>
       <c r="C15">
-        <v>9.929849915364604</v>
+        <v>10.15500244658367</v>
       </c>
       <c r="D15">
-        <v>6.602817523125617</v>
+        <v>6.678972909142581</v>
       </c>
       <c r="E15">
-        <v>6.687537051576053</v>
+        <v>6.649581838078491</v>
       </c>
       <c r="F15">
-        <v>18.5998085820228</v>
+        <v>17.96958210392058</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.776902522682519</v>
+        <v>6.759584996449106</v>
       </c>
       <c r="I15">
-        <v>2.596065601412083</v>
+        <v>2.52219531253579</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>14.24579274063347</v>
+        <v>13.6788118621087</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.14425465923976</v>
       </c>
       <c r="M15">
-        <v>13.64319188772317</v>
+        <v>9.157279813058272</v>
       </c>
       <c r="N15">
-        <v>4.99395695524885</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.65086687976111</v>
       </c>
       <c r="P15">
-        <v>12.33351392299596</v>
+        <v>5.083120324691111</v>
       </c>
       <c r="Q15">
-        <v>14.69382849040374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.28254957767732</v>
+      </c>
+      <c r="S15">
+        <v>14.18731038464608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.18395838473905</v>
+        <v>14.90605497443203</v>
       </c>
       <c r="C16">
-        <v>9.721337702901849</v>
+        <v>9.901518091204814</v>
       </c>
       <c r="D16">
-        <v>6.46143849107639</v>
+        <v>6.527203407193814</v>
       </c>
       <c r="E16">
-        <v>6.666455533416976</v>
+        <v>6.627330501108869</v>
       </c>
       <c r="F16">
-        <v>18.44709638886965</v>
+        <v>17.84448342612561</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.570805723538223</v>
+        <v>6.54990664416059</v>
       </c>
       <c r="I16">
-        <v>2.689573183877554</v>
+        <v>2.607512068972072</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>14.33269614609907</v>
+        <v>13.77964705906675</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.25491183127159</v>
       </c>
       <c r="M16">
-        <v>13.25249948860156</v>
+        <v>9.151924950014786</v>
       </c>
       <c r="N16">
-        <v>4.992037323827212</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.263374304786</v>
       </c>
       <c r="P16">
-        <v>12.41940414050884</v>
+        <v>5.084805815068762</v>
       </c>
       <c r="Q16">
-        <v>14.71358723504947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.35692990321631</v>
+      </c>
+      <c r="S16">
+        <v>14.2264494469211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.02659797328073</v>
+        <v>14.74766114229367</v>
       </c>
       <c r="C17">
-        <v>9.463193482792414</v>
+        <v>9.620802923806442</v>
       </c>
       <c r="D17">
-        <v>6.319691123335651</v>
+        <v>6.382248998202784</v>
       </c>
       <c r="E17">
-        <v>6.733114888730926</v>
+        <v>6.672631900334548</v>
       </c>
       <c r="F17">
-        <v>18.61969536336712</v>
+        <v>18.01001052939046</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.839200821628048</v>
+        <v>5.813823454434271</v>
       </c>
       <c r="I17">
-        <v>2.738977080221705</v>
+        <v>2.652965917517014</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>14.55364934390002</v>
+        <v>13.98501116871703</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.42410640647455</v>
       </c>
       <c r="M17">
-        <v>13.03365276372941</v>
+        <v>9.272840040370651</v>
       </c>
       <c r="N17">
-        <v>5.242309645200346</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.04554266598778</v>
       </c>
       <c r="P17">
-        <v>12.4612123890836</v>
+        <v>5.338944849799844</v>
       </c>
       <c r="Q17">
-        <v>14.91682188038352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.38809842421596</v>
+      </c>
+      <c r="S17">
+        <v>14.42172077528999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.15958654479782</v>
+        <v>14.8565855002642</v>
       </c>
       <c r="C18">
-        <v>9.133715783657063</v>
+        <v>9.28102898760649</v>
       </c>
       <c r="D18">
-        <v>6.161306219957241</v>
+        <v>6.226160068981986</v>
       </c>
       <c r="E18">
-        <v>7.060207565064967</v>
+        <v>6.95818374187903</v>
       </c>
       <c r="F18">
-        <v>19.10235416400755</v>
+        <v>18.45505125628737</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.596127291153123</v>
+        <v>4.563541851926844</v>
       </c>
       <c r="I18">
-        <v>2.743015938108192</v>
+        <v>2.654461126895302</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>14.932721605187</v>
+        <v>14.32055773388402</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.68076747147662</v>
       </c>
       <c r="M18">
-        <v>12.944511060213</v>
+        <v>9.519721706433838</v>
       </c>
       <c r="N18">
-        <v>5.804597015294746</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.95555344121022</v>
       </c>
       <c r="P18">
-        <v>12.47641452925616</v>
+        <v>5.904775823173275</v>
       </c>
       <c r="Q18">
-        <v>15.31103674971428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.39068573023224</v>
+      </c>
+      <c r="S18">
+        <v>14.78345344447771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.49549679353172</v>
+        <v>15.14659293462595</v>
       </c>
       <c r="C19">
-        <v>8.818287973749104</v>
+        <v>8.962962518314194</v>
       </c>
       <c r="D19">
-        <v>6.01238086955496</v>
+        <v>6.083407215463519</v>
       </c>
       <c r="E19">
-        <v>7.782683844432723</v>
+        <v>7.629200682827898</v>
       </c>
       <c r="F19">
-        <v>19.75705256964806</v>
+        <v>19.05090852208237</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.127541140630941</v>
+        <v>3.082192677245594</v>
       </c>
       <c r="I19">
-        <v>2.728113454617141</v>
+        <v>2.642790019174592</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>15.39789226005062</v>
+        <v>14.72295414506729</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.98003417335823</v>
       </c>
       <c r="M19">
-        <v>12.96672540453032</v>
+        <v>9.836144110548304</v>
       </c>
       <c r="N19">
-        <v>6.644861233814606</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.97543434315155</v>
       </c>
       <c r="P19">
-        <v>12.47976184587544</v>
+        <v>6.747870696318306</v>
       </c>
       <c r="Q19">
-        <v>15.80591392536471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.37972112573619</v>
+      </c>
+      <c r="S19">
+        <v>15.22874362529353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.37748250350742</v>
+        <v>15.957463129393</v>
       </c>
       <c r="C20">
-        <v>8.514419926200695</v>
+        <v>8.67332598828099</v>
       </c>
       <c r="D20">
-        <v>5.885819981004562</v>
+        <v>5.973409093652675</v>
       </c>
       <c r="E20">
-        <v>9.371697627339445</v>
+        <v>9.143079943021025</v>
       </c>
       <c r="F20">
-        <v>20.9210363212914</v>
+        <v>20.09915261896246</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.596228096799269</v>
+        <v>1.611489553770836</v>
       </c>
       <c r="I20">
-        <v>2.624159830297607</v>
+        <v>2.550427138413347</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>16.12947243510914</v>
+        <v>15.33615305673151</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.39002404189397</v>
       </c>
       <c r="M20">
-        <v>13.30017035454048</v>
+        <v>10.39048202203652</v>
       </c>
       <c r="N20">
-        <v>8.118407263796559</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.30254421654003</v>
       </c>
       <c r="P20">
-        <v>12.4398005386631</v>
+        <v>8.224792082558094</v>
       </c>
       <c r="Q20">
-        <v>16.60801704240058</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.31912735163352</v>
+      </c>
+      <c r="S20">
+        <v>15.93391025702559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.41806920099394</v>
+        <v>16.93777274396568</v>
       </c>
       <c r="C21">
-        <v>8.756513027800922</v>
+        <v>8.999980079583636</v>
       </c>
       <c r="D21">
-        <v>6.078139593985435</v>
+        <v>6.188932065955368</v>
       </c>
       <c r="E21">
-        <v>9.808435820459607</v>
+        <v>9.546999882177747</v>
       </c>
       <c r="F21">
-        <v>21.54347271944212</v>
+        <v>20.63848715602009</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.76719088811151</v>
+        <v>1.822121292830046</v>
       </c>
       <c r="I21">
-        <v>2.569356470048036</v>
+        <v>2.643694937518378</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>16.25094367353058</v>
+        <v>15.38709264872772</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.28506223238171</v>
       </c>
       <c r="M21">
-        <v>14.03950139577321</v>
+        <v>10.65305048998144</v>
       </c>
       <c r="N21">
-        <v>8.551761667068543</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.0347429979432</v>
       </c>
       <c r="P21">
-        <v>12.26573586965447</v>
+        <v>8.657600984389923</v>
       </c>
       <c r="Q21">
-        <v>16.8571764341046</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.15446199602476</v>
+      </c>
+      <c r="S21">
+        <v>16.1161871263214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.05475679384018</v>
+        <v>17.53934996157216</v>
       </c>
       <c r="C22">
-        <v>8.916575254679008</v>
+        <v>9.212079198743673</v>
       </c>
       <c r="D22">
-        <v>6.204811332675516</v>
+        <v>6.329680893579042</v>
       </c>
       <c r="E22">
-        <v>10.01447371205577</v>
+        <v>9.734794358204327</v>
       </c>
       <c r="F22">
-        <v>21.92682593501497</v>
+        <v>20.97235476155524</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.906928787958817</v>
+        <v>1.95346076920528</v>
       </c>
       <c r="I22">
-        <v>2.673268530770116</v>
+        <v>2.736134930184799</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>16.31820658212798</v>
+        <v>15.41148305112055</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.20720778667156</v>
       </c>
       <c r="M22">
-        <v>14.49865956684755</v>
+        <v>10.82871483879998</v>
       </c>
       <c r="N22">
-        <v>8.758975525999922</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.4895652705182</v>
       </c>
       <c r="P22">
-        <v>12.15251167659165</v>
+        <v>8.864438441016793</v>
       </c>
       <c r="Q22">
-        <v>17.006655020853</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.04827211379844</v>
+      </c>
+      <c r="S22">
+        <v>16.22522227875596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.7320429986243</v>
+        <v>17.23513187906049</v>
       </c>
       <c r="C23">
-        <v>8.819894597087618</v>
+        <v>9.085176503758282</v>
       </c>
       <c r="D23">
-        <v>6.133669886915309</v>
+        <v>6.250930139425141</v>
       </c>
       <c r="E23">
-        <v>9.912142088133129</v>
+        <v>9.641997505123062</v>
       </c>
       <c r="F23">
-        <v>21.74405861215489</v>
+        <v>20.81570640126204</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.833561626922067</v>
+        <v>1.884536673496418</v>
       </c>
       <c r="I23">
-        <v>2.612641725065056</v>
+        <v>2.680237183704223</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>16.30050231392593</v>
+        <v>15.41577087249009</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.26073805207483</v>
       </c>
       <c r="M23">
-        <v>14.25634467410283</v>
+        <v>10.7486634706358</v>
       </c>
       <c r="N23">
-        <v>8.647484557119293</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.24953906133479</v>
       </c>
       <c r="P23">
-        <v>12.21365572654022</v>
+        <v>8.753129908862228</v>
       </c>
       <c r="Q23">
-        <v>16.94339887614636</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.10494129038659</v>
+      </c>
+      <c r="S23">
+        <v>16.18315973361539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.4264246982626</v>
+        <v>16.00270511569215</v>
       </c>
       <c r="C24">
-        <v>8.465679308714231</v>
+        <v>8.617264403033506</v>
       </c>
       <c r="D24">
-        <v>5.862556440527168</v>
+        <v>5.950172377996854</v>
       </c>
       <c r="E24">
-        <v>9.501606516939425</v>
+        <v>9.268802471376191</v>
       </c>
       <c r="F24">
-        <v>21.02086192034597</v>
+        <v>20.19300808277348</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.573629462148079</v>
+        <v>1.615925289335046</v>
       </c>
       <c r="I24">
-        <v>2.602695535574388</v>
+        <v>2.525275566642551</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>16.21171573842454</v>
+        <v>15.41037988004303</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.44617989094674</v>
       </c>
       <c r="M24">
-        <v>13.29739376709776</v>
+        <v>10.44733000977689</v>
       </c>
       <c r="N24">
-        <v>8.215075621169415</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.29953903039369</v>
       </c>
       <c r="P24">
-        <v>12.44609634297568</v>
+        <v>8.321796725862251</v>
       </c>
       <c r="Q24">
-        <v>16.68742645868761</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.3222352152858</v>
+      </c>
+      <c r="S24">
+        <v>16.00777895216477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.94742371391825</v>
+        <v>14.54906261906778</v>
       </c>
       <c r="C25">
-        <v>8.069085451173512</v>
+        <v>8.09125301486425</v>
       </c>
       <c r="D25">
-        <v>5.553619895713042</v>
+        <v>5.607147691104934</v>
       </c>
       <c r="E25">
-        <v>9.035135755023152</v>
+        <v>8.844518959991024</v>
       </c>
       <c r="F25">
-        <v>20.25355012571869</v>
+        <v>19.53570374330272</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.904022914660561</v>
+        <v>1.814648850449513</v>
       </c>
       <c r="I25">
-        <v>2.862294041227265</v>
+        <v>2.759496903044179</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>16.13366989392617</v>
+        <v>15.41896132492207</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.65041633208121</v>
       </c>
       <c r="M25">
-        <v>12.17823960384692</v>
+        <v>10.183682102985</v>
       </c>
       <c r="N25">
-        <v>7.723181483965994</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.19070498362049</v>
       </c>
       <c r="P25">
-        <v>12.70174184526768</v>
+        <v>7.83201115534122</v>
       </c>
       <c r="Q25">
-        <v>16.43514648090619</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.56271078686337</v>
+      </c>
+      <c r="S25">
+        <v>15.84116901809981</v>
       </c>
     </row>
   </sheetData>
